--- a/3DBeam/output/Berechnungs_Ergebnisse.xlsx
+++ b/3DBeam/output/Berechnungs_Ergebnisse.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Iy [m^4]</t>
+          <t>Iz [m^4]</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>Iy [m^4]</t>
+          <t>Iz [m^4]</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>Iy [m^4]</t>
+          <t>Iz [m^4]</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
@@ -681,46 +681,46 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>326.2414788463088</v>
+        <v>88.73</v>
       </c>
       <c r="E8" t="n">
-        <v>18.09557368467723</v>
+        <v>11.06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>326.2414788463088</v>
+        <v>88.73</v>
       </c>
       <c r="J8" t="n">
-        <v>18.09557368467723</v>
+        <v>11.06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>188.92985298382</v>
+        <v>88.73</v>
       </c>
       <c r="O8" t="n">
-        <v>15.07964473723102</v>
+        <v>11.06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
@@ -728,49 +728,49 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>13.74999973022509</v>
+        <v>13.75</v>
       </c>
       <c r="C9" t="n">
-        <v>10.925</v>
+        <v>7.42</v>
       </c>
       <c r="D9" t="n">
-        <v>246.2651736246698</v>
+        <v>70.98</v>
       </c>
       <c r="E9" t="n">
-        <v>16.47451187542489</v>
+        <v>10.26</v>
       </c>
       <c r="F9" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G9" t="n">
-        <v>13.74999973022509</v>
+        <v>13.75</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5</v>
+        <v>7.3</v>
       </c>
       <c r="I9" t="n">
-        <v>218.6631801935671</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>15.83362697409258</v>
+        <v>10.09</v>
       </c>
       <c r="K9" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L9" t="n">
-        <v>13.74999973022509</v>
+        <v>13.75</v>
       </c>
       <c r="M9" t="n">
-        <v>9.166666666666666</v>
+        <v>7.3</v>
       </c>
       <c r="N9" t="n">
-        <v>145.5876797713413</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8230076757951</v>
+        <v>10.09</v>
       </c>
       <c r="P9" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10">
@@ -778,49 +778,49 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>27.49999946045018</v>
+        <v>27.5</v>
       </c>
       <c r="C10" t="n">
-        <v>9.85</v>
+        <v>6.85</v>
       </c>
       <c r="D10" t="n">
-        <v>180.567636742559</v>
+        <v>55.77</v>
       </c>
       <c r="E10" t="n">
-        <v>14.85345006617256</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G10" t="n">
-        <v>27.49999946045018</v>
+        <v>27.5</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8041270596067</v>
+        <v>49.9</v>
       </c>
       <c r="J10" t="n">
-        <v>13.57168026350791</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L10" t="n">
-        <v>27.49999946045018</v>
+        <v>27.5</v>
       </c>
       <c r="M10" t="n">
-        <v>8.333333333333334</v>
+        <v>6.6</v>
       </c>
       <c r="N10" t="n">
-        <v>109.4449897233392</v>
+        <v>49.9</v>
       </c>
       <c r="O10" t="n">
-        <v>12.56637061435919</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
@@ -828,49 +828,49 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>41.24999919067527</v>
+        <v>41.25</v>
       </c>
       <c r="C11" t="n">
-        <v>8.775</v>
+        <v>6.28</v>
       </c>
       <c r="D11" t="n">
-        <v>127.743863534989</v>
+        <v>42.9</v>
       </c>
       <c r="E11" t="n">
-        <v>13.23238825692021</v>
+        <v>8.67</v>
       </c>
       <c r="F11" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G11" t="n">
-        <v>41.24999919067527</v>
+        <v>41.25</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="I11" t="n">
-        <v>79.8472843703159</v>
+        <v>35.68</v>
       </c>
       <c r="J11" t="n">
-        <v>11.30973355292327</v>
+        <v>8.16</v>
       </c>
       <c r="K11" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L11" t="n">
-        <v>41.24999919067527</v>
+        <v>41.25</v>
       </c>
       <c r="M11" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="N11" t="n">
-        <v>79.8472843703159</v>
+        <v>35.68</v>
       </c>
       <c r="O11" t="n">
-        <v>11.30973355292327</v>
+        <v>8.16</v>
       </c>
       <c r="P11" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
@@ -878,49 +878,49 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>54.99999892090035</v>
+        <v>55</v>
       </c>
       <c r="C12" t="n">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="D12" t="n">
-        <v>86.38884933697129</v>
+        <v>32.19</v>
       </c>
       <c r="E12" t="n">
-        <v>11.61132644766786</v>
+        <v>7.88</v>
       </c>
       <c r="F12" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G12" t="n">
-        <v>54.99999892090035</v>
+        <v>55</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>40.97561705158311</v>
+        <v>24.47</v>
       </c>
       <c r="J12" t="n">
-        <v>9.047786842338613</v>
+        <v>7.19</v>
       </c>
       <c r="K12" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
-        <v>54.99999892090035</v>
+        <v>55</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="N12" t="n">
-        <v>40.97561705158311</v>
+        <v>24.47</v>
       </c>
       <c r="O12" t="n">
-        <v>9.047786842338613</v>
+        <v>7.19</v>
       </c>
       <c r="P12" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13">
@@ -928,49 +928,49 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>68.74999865112544</v>
+        <v>68.75</v>
       </c>
       <c r="C13" t="n">
-        <v>6.625</v>
+        <v>5.12</v>
       </c>
       <c r="D13" t="n">
-        <v>55.09758948351856</v>
+        <v>23.43</v>
       </c>
       <c r="E13" t="n">
-        <v>9.99026463841555</v>
+        <v>7.08</v>
       </c>
       <c r="F13" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G13" t="n">
-        <v>68.74999865112544</v>
+        <v>68.75</v>
       </c>
       <c r="H13" t="n">
-        <v>5.35</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>29.09674283459829</v>
+        <v>15.9</v>
       </c>
       <c r="J13" t="n">
-        <v>8.067609934418595</v>
+        <v>6.22</v>
       </c>
       <c r="K13" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
-        <v>68.74999865112544</v>
+        <v>68.75</v>
       </c>
       <c r="M13" t="n">
-        <v>5.35</v>
+        <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>29.09674283459829</v>
+        <v>15.9</v>
       </c>
       <c r="O13" t="n">
-        <v>8.067609934418595</v>
+        <v>6.22</v>
       </c>
       <c r="P13" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14">
@@ -978,49 +978,49 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>82.49999838135054</v>
+        <v>82.5</v>
       </c>
       <c r="C14" t="n">
-        <v>5.550000000000001</v>
+        <v>4.55</v>
       </c>
       <c r="D14" t="n">
-        <v>32.46507930964241</v>
+        <v>16.43</v>
       </c>
       <c r="E14" t="n">
-        <v>8.369202829163218</v>
+        <v>6.29</v>
       </c>
       <c r="F14" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G14" t="n">
-        <v>82.49999838135054</v>
+        <v>82.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.13</v>
       </c>
       <c r="I14" t="n">
-        <v>19.77429251558233</v>
+        <v>12.34</v>
       </c>
       <c r="J14" t="n">
-        <v>7.087433026498564</v>
+        <v>5.71</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L14" t="n">
-        <v>82.49999838135054</v>
+        <v>82.5</v>
       </c>
       <c r="M14" t="n">
-        <v>4.7</v>
+        <v>4.13</v>
       </c>
       <c r="N14" t="n">
-        <v>19.77429251558233</v>
+        <v>12.34</v>
       </c>
       <c r="O14" t="n">
-        <v>7.087433026498564</v>
+        <v>5.71</v>
       </c>
       <c r="P14" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15">
@@ -1028,49 +1028,49 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>96.24999811157562</v>
+        <v>96.25</v>
       </c>
       <c r="C15" t="n">
-        <v>4.475000000000001</v>
+        <v>3.98</v>
       </c>
       <c r="D15" t="n">
-        <v>17.08631415035502</v>
+        <v>10.99</v>
       </c>
       <c r="E15" t="n">
-        <v>6.74814101991087</v>
+        <v>5.49</v>
       </c>
       <c r="F15" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G15" t="n">
-        <v>96.24999811157562</v>
+        <v>96.25</v>
       </c>
       <c r="H15" t="n">
-        <v>4.05</v>
+        <v>3.77</v>
       </c>
       <c r="I15" t="n">
-        <v>12.69767253683815</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>6.107256118578555</v>
+        <v>5.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>96.24999811157562</v>
+        <v>96.25</v>
       </c>
       <c r="M15" t="n">
-        <v>4.05</v>
+        <v>3.77</v>
       </c>
       <c r="N15" t="n">
-        <v>12.69767253683815</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>6.107256118578555</v>
+        <v>5.21</v>
       </c>
       <c r="P15" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
@@ -1078,49 +1078,49 @@
         <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>109.9999978418007</v>
+        <v>110</v>
       </c>
       <c r="C16" t="n">
         <v>3.4</v>
       </c>
       <c r="D16" t="n">
-        <v>7.55628934066856</v>
+        <v>6.9</v>
       </c>
       <c r="E16" t="n">
-        <v>5.127079210658543</v>
+        <v>4.7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G16" t="n">
-        <v>109.9999978418007</v>
+        <v>110</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.55628934066856</v>
+        <v>6.9</v>
       </c>
       <c r="J16" t="n">
-        <v>5.127079210658543</v>
+        <v>4.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
-        <v>109.9999978418007</v>
+        <v>110</v>
       </c>
       <c r="M16" t="n">
         <v>3.4</v>
       </c>
       <c r="N16" t="n">
-        <v>7.55628934066856</v>
+        <v>6.9</v>
       </c>
       <c r="O16" t="n">
-        <v>5.127079210658543</v>
+        <v>4.7</v>
       </c>
       <c r="P16" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -1195,6 +1195,11 @@
           <t>cd</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cp_max</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1203,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.48</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>110</v>
@@ -1211,6 +1216,9 @@
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
+      <c r="E2" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1219,7 +1227,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.48</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>110</v>
@@ -1227,6 +1235,9 @@
       <c r="D3" t="n">
         <v>1.1</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1235,13 +1246,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.48</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>110</v>
       </c>
       <c r="D4" t="n">
         <v>1.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -1455,73 +1469,73 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.49</v>
+        <v>6.77</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.24</v>
+        <v>-15.15</v>
       </c>
       <c r="E10" t="n">
-        <v>46.88</v>
+        <v>78.94</v>
       </c>
       <c r="F10" t="n">
-        <v>0.401</v>
+        <v>0.89</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.53</v>
+        <v>6.79</v>
       </c>
       <c r="L10" t="n">
-        <v>-6.24</v>
+        <v>-15.14</v>
       </c>
       <c r="M10" t="n">
-        <v>47.7</v>
+        <v>79.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4</v>
+        <v>0.889</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>6.79</v>
       </c>
       <c r="T10" t="n">
-        <v>-9.039999999999999</v>
+        <v>-15.14</v>
       </c>
       <c r="U10" t="n">
-        <v>60.78</v>
+        <v>79.2</v>
       </c>
       <c r="V10" t="n">
-        <v>0.58</v>
+        <v>0.889</v>
       </c>
       <c r="W10" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -1532,73 +1546,73 @@
         <v>13.75</v>
       </c>
       <c r="C11" t="n">
-        <v>2.62</v>
+        <v>6.79</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.46</v>
+        <v>-15.14</v>
       </c>
       <c r="E11" t="n">
-        <v>45.1</v>
+        <v>73.8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.414</v>
+        <v>0.889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="J11" t="n">
         <v>13.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.92</v>
+        <v>7.07</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.99</v>
+        <v>-15.67</v>
       </c>
       <c r="M11" t="n">
-        <v>48.33</v>
+        <v>75.62</v>
       </c>
       <c r="N11" t="n">
-        <v>0.448</v>
+        <v>0.92</v>
       </c>
       <c r="O11" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="R11" t="n">
         <v>13.75</v>
       </c>
       <c r="S11" t="n">
-        <v>3.96</v>
+        <v>7.07</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.23</v>
+        <v>-15.67</v>
       </c>
       <c r="U11" t="n">
-        <v>57.66</v>
+        <v>75.62</v>
       </c>
       <c r="V11" t="n">
-        <v>0.591</v>
+        <v>0.92</v>
       </c>
       <c r="W11" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12">
@@ -1609,73 +1623,73 @@
         <v>27.5</v>
       </c>
       <c r="C12" t="n">
-        <v>2.75</v>
+        <v>6.75</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.68</v>
+        <v>-15.03</v>
       </c>
       <c r="E12" t="n">
-        <v>42.91</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.428</v>
+        <v>0.882</v>
       </c>
       <c r="G12" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="J12" t="n">
         <v>27.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.43</v>
+        <v>7.35</v>
       </c>
       <c r="L12" t="n">
-        <v>-8.02</v>
+        <v>-16.21</v>
       </c>
       <c r="M12" t="n">
-        <v>49</v>
+        <v>71.48</v>
       </c>
       <c r="N12" t="n">
-        <v>0.514</v>
+        <v>0.952</v>
       </c>
       <c r="O12" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="P12" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="R12" t="n">
         <v>27.5</v>
       </c>
       <c r="S12" t="n">
-        <v>4.07</v>
+        <v>7.35</v>
       </c>
       <c r="T12" t="n">
-        <v>-9.390000000000001</v>
+        <v>-16.21</v>
       </c>
       <c r="U12" t="n">
-        <v>54.07</v>
+        <v>71.48</v>
       </c>
       <c r="V12" t="n">
-        <v>0.602</v>
+        <v>0.952</v>
       </c>
       <c r="W12" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="13">
@@ -1686,73 +1700,73 @@
         <v>41.25</v>
       </c>
       <c r="C13" t="n">
-        <v>2.88</v>
+        <v>6.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.9</v>
+        <v>-14.74</v>
       </c>
       <c r="E13" t="n">
-        <v>40.24</v>
+        <v>61.53</v>
       </c>
       <c r="F13" t="n">
-        <v>0.442</v>
+        <v>0.865</v>
       </c>
       <c r="G13" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
       <c r="J13" t="n">
         <v>41.25</v>
       </c>
       <c r="K13" t="n">
-        <v>4.15</v>
+        <v>7.6</v>
       </c>
       <c r="L13" t="n">
-        <v>-9.51</v>
+        <v>-16.73</v>
       </c>
       <c r="M13" t="n">
-        <v>49.91</v>
+        <v>66.63</v>
       </c>
       <c r="N13" t="n">
-        <v>0.609</v>
+        <v>0.982</v>
       </c>
       <c r="O13" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="R13" t="n">
         <v>41.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.15</v>
+        <v>7.6</v>
       </c>
       <c r="T13" t="n">
-        <v>-9.51</v>
+        <v>-16.73</v>
       </c>
       <c r="U13" t="n">
-        <v>49.91</v>
+        <v>66.63</v>
       </c>
       <c r="V13" t="n">
-        <v>0.609</v>
+        <v>0.982</v>
       </c>
       <c r="W13" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="X13" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="14">
@@ -1763,73 +1777,73 @@
         <v>55</v>
       </c>
       <c r="C14" t="n">
-        <v>2.99</v>
+        <v>6.36</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.09</v>
+        <v>-14.19</v>
       </c>
       <c r="E14" t="n">
-        <v>36.9</v>
+        <v>54.01</v>
       </c>
       <c r="F14" t="n">
-        <v>0.454</v>
+        <v>0.832</v>
       </c>
       <c r="G14" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="J14" t="n">
         <v>55</v>
       </c>
       <c r="K14" t="n">
-        <v>5.26</v>
+        <v>7.79</v>
       </c>
       <c r="L14" t="n">
-        <v>-11.84</v>
+        <v>-17.14</v>
       </c>
       <c r="M14" t="n">
-        <v>51.37</v>
+        <v>60.76</v>
       </c>
       <c r="N14" t="n">
-        <v>0.758</v>
+        <v>1.005</v>
       </c>
       <c r="O14" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="R14" t="n">
         <v>55</v>
       </c>
       <c r="S14" t="n">
-        <v>5.26</v>
+        <v>7.79</v>
       </c>
       <c r="T14" t="n">
-        <v>-11.84</v>
+        <v>-17.14</v>
       </c>
       <c r="U14" t="n">
-        <v>51.37</v>
+        <v>60.76</v>
       </c>
       <c r="V14" t="n">
-        <v>0.758</v>
+        <v>1.005</v>
       </c>
       <c r="W14" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="X14" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="15">
@@ -1840,73 +1854,73 @@
         <v>68.75</v>
       </c>
       <c r="C15" t="n">
-        <v>3.03</v>
+        <v>5.86</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.18</v>
+        <v>-13.16</v>
       </c>
       <c r="E15" t="n">
-        <v>32.5</v>
+        <v>45.07</v>
       </c>
       <c r="F15" t="n">
-        <v>0.459</v>
+        <v>0.772</v>
       </c>
       <c r="G15" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="J15" t="n">
         <v>68.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.92</v>
+        <v>7.81</v>
       </c>
       <c r="L15" t="n">
-        <v>-11.15</v>
+        <v>-17.22</v>
       </c>
       <c r="M15" t="n">
-        <v>43.23</v>
+        <v>53.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.713</v>
+        <v>1.01</v>
       </c>
       <c r="O15" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="P15" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="R15" t="n">
         <v>68.75</v>
       </c>
       <c r="S15" t="n">
-        <v>4.92</v>
+        <v>7.81</v>
       </c>
       <c r="T15" t="n">
-        <v>-11.15</v>
+        <v>-17.22</v>
       </c>
       <c r="U15" t="n">
-        <v>43.23</v>
+        <v>53.3</v>
       </c>
       <c r="V15" t="n">
-        <v>0.713</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="X15" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
@@ -1917,73 +1931,73 @@
         <v>82.5</v>
       </c>
       <c r="C16" t="n">
-        <v>2.9</v>
+        <v>4.94</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.93</v>
+        <v>-11.32</v>
       </c>
       <c r="E16" t="n">
-        <v>26.35</v>
+        <v>34.05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.443</v>
+        <v>0.664</v>
       </c>
       <c r="G16" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I16" t="n">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="J16" t="n">
         <v>82.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.23</v>
+        <v>6.12</v>
       </c>
       <c r="L16" t="n">
-        <v>-9.779999999999999</v>
+        <v>-13.82</v>
       </c>
       <c r="M16" t="n">
-        <v>33.06</v>
+        <v>38.68</v>
       </c>
       <c r="N16" t="n">
-        <v>0.625</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="P16" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="R16" t="n">
         <v>82.5</v>
       </c>
       <c r="S16" t="n">
-        <v>4.23</v>
+        <v>6.12</v>
       </c>
       <c r="T16" t="n">
-        <v>-9.779999999999999</v>
+        <v>-13.82</v>
       </c>
       <c r="U16" t="n">
-        <v>33.06</v>
+        <v>38.68</v>
       </c>
       <c r="V16" t="n">
-        <v>0.625</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W16" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="X16" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17">
@@ -1994,73 +2008,73 @@
         <v>96.25</v>
       </c>
       <c r="C17" t="n">
-        <v>2.27</v>
+        <v>3.26</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.77</v>
+        <v>-8</v>
       </c>
       <c r="E17" t="n">
-        <v>16.98</v>
+        <v>19.89</v>
       </c>
       <c r="F17" t="n">
-        <v>0.369</v>
+        <v>0.468</v>
       </c>
       <c r="G17" t="n">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="H17" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I17" t="n">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="J17" t="n">
         <v>96.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.88</v>
+        <v>3.69</v>
       </c>
       <c r="L17" t="n">
-        <v>-7.1</v>
+        <v>-8.94</v>
       </c>
       <c r="M17" t="n">
-        <v>19.65</v>
+        <v>21.47</v>
       </c>
       <c r="N17" t="n">
-        <v>0.454</v>
+        <v>0.524</v>
       </c>
       <c r="O17" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="P17" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="R17" t="n">
         <v>96.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2.88</v>
+        <v>3.69</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.1</v>
+        <v>-8.94</v>
       </c>
       <c r="U17" t="n">
-        <v>19.65</v>
+        <v>21.47</v>
       </c>
       <c r="V17" t="n">
-        <v>0.454</v>
+        <v>0.524</v>
       </c>
       <c r="W17" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="X17" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="18">
@@ -2071,73 +2085,73 @@
         <v>110</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.66</v>
+        <v>-1.8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F18" t="n">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="G18" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="H18" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="I18" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="J18" t="n">
         <v>110</v>
       </c>
       <c r="K18" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.66</v>
+        <v>-1.8</v>
       </c>
       <c r="M18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="N18" t="n">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="O18" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="P18" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="R18" t="n">
         <v>110</v>
       </c>
       <c r="S18" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="T18" t="n">
-        <v>-1.66</v>
+        <v>-1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="V18" t="n">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="W18" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="X18" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2215,7 @@
     <row r="1">
       <c r="B1" s="4" t="inlineStr">
         <is>
-          <t>t, tX, tY [cm] 48, 40.0, 8.0</t>
+          <t>t, tX, tY [cm] 44, 40.0, 4.0</t>
         </is>
       </c>
     </row>
@@ -2229,13 +2243,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4591390637970857</v>
+        <v>0.8900077810999515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7580634707275777</v>
+        <v>1.00997902899666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7580634707276442</v>
+        <v>1.00997902899666</v>
       </c>
     </row>
   </sheetData>

--- a/3DBeam/output/Berechnungs_Ergebnisse.xlsx
+++ b/3DBeam/output/Berechnungs_Ergebnisse.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QS_Werte" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berechnungs_Ergebnisse" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ausnutzungen_max" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einwirkung" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berechnungs_Ergebnisse" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ausnutzungen_max" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,25 +513,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>fvxyk</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ftornodek</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>rhok</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>E0mean</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>E90mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>alpha</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>alphaT</t>
         </is>
@@ -556,18 +567,24 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>460</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>12000000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>370000000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.02</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>4e-06</v>
       </c>
     </row>
@@ -825,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,17 +860,1583 @@
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>vb</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Terrain Kategorie</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>gamma_q</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gamma_g</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Nabenhöhe</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>Querschnitt</t>
         </is>
       </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Ring Gerade t40</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Komponente</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Fx [kN]</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Gravity [kN]</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>Fy [kN]</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>Imp_hor_ers. [kN]</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>Mz [kNm]</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>Mx [kNm]</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Ew. Dauer</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-866.4299999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-866.4299999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-797.26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-797.26</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-728.09</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-728.09</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-658.92</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-658.92</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-589.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-589.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-520.58</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-520.58</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-451.42</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-451.42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="J16" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-382.25</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-382.25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-313.08</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-313.08</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-3640</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-3640</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1177.17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1177.17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-3240</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-3240</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Nabenhöhe</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Querschnitt</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Ring Gerade t40</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
+      <c r="R30" s="2" t="n"/>
+      <c r="S30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Komponente</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Fx [kN]</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>Gravity [kN]</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>Fy [kN]</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>Imp_hor_ers. [kN]</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="3" t="n"/>
+      <c r="N31" s="1" t="inlineStr">
+        <is>
+          <t>Mz [kNm]</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="3" t="n"/>
+      <c r="Q31" s="1" t="inlineStr">
+        <is>
+          <t>Mx [kNm]</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Ew. Dauer</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="N32" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="O32" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="P32" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="Q32" s="1" t="inlineStr">
+        <is>
+          <t>ständig</t>
+        </is>
+      </c>
+      <c r="R32" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="S32" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-866.4299999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-866.4299999999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-797.26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-797.26</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-728.09</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-728.09</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="J36" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-658.92</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-658.92</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="J37" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-589.75</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-589.75</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="J38" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-520.58</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-520.58</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="J39" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-451.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-451.42</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="J40" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-382.25</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-382.25</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="J41" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-313.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-313.08</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="J42" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-3640</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3640</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1177.17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1177.17</v>
+      </c>
+      <c r="K43" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-3240</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-3240</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2310</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="B30:S30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Querschnitt</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>t [cm]</t>
+          <t>t [m]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -867,11 +2450,6 @@
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>cp_max</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Volumen [m³]</t>
         </is>
@@ -893,9 +2471,6 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F2" t="n">
         <v>1176.21</v>
       </c>
     </row>
@@ -915,7 +2490,13 @@
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
       <c r="I4" s="2" t="n"/>
-      <c r="J4" s="3" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -935,7 +2516,13 @@
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
-      <c r="J5" s="3" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -965,7 +2552,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>Ausnutzung druck</t>
+          <t>Ausn. druck</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -980,12 +2567,42 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>τ_ges [N/mm²]</t>
+          <t>τ_xy [N/mm²]</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>Ausnutzung schub</t>
+          <t>τ_tor [N/mm²]</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. schub brutto</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. schub netto</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. schub torsion</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>fvd_brutto</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>fvd_netto</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>fvd_tor</t>
         </is>
       </c>
     </row>
@@ -1000,25 +2617,43 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>82.33</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.1</v>
+        <v>-10.15</v>
       </c>
       <c r="F8" t="n">
-        <v>0.931</v>
+        <v>0.781</v>
       </c>
       <c r="G8" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="H8" t="n">
         <v>0.03</v>
       </c>
       <c r="I8" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="J8" t="n">
-        <v>0.109</v>
+        <v>0.27</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="9">
@@ -1032,25 +2667,43 @@
         <v>10.16</v>
       </c>
       <c r="D9" t="n">
-        <v>78.12</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.31</v>
+        <v>-10.53</v>
       </c>
       <c r="F9" t="n">
-        <v>0.947</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="H9" t="n">
         <v>0.04</v>
       </c>
       <c r="I9" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="J9" t="n">
-        <v>0.116</v>
+        <v>0.29</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="10">
@@ -1064,25 +2717,43 @@
         <v>9.31</v>
       </c>
       <c r="D10" t="n">
-        <v>73.43000000000001</v>
+        <v>62.89</v>
       </c>
       <c r="E10" t="n">
-        <v>-12.5</v>
+        <v>-10.91</v>
       </c>
       <c r="F10" t="n">
-        <v>0.962</v>
+        <v>0.84</v>
       </c>
       <c r="G10" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="H10" t="n">
         <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="J10" t="n">
-        <v>0.122</v>
+        <v>0.31</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
@@ -1096,25 +2767,43 @@
         <v>8.470000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>68.19</v>
+        <v>59.93</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.64</v>
+        <v>-11.28</v>
       </c>
       <c r="F11" t="n">
-        <v>0.973</v>
+        <v>0.868</v>
       </c>
       <c r="G11" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="H11" t="n">
         <v>0.05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="J11" t="n">
-        <v>0.129</v>
+        <v>0.34</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="12">
@@ -1128,25 +2817,43 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="n">
-        <v>62.36</v>
+        <v>56.14</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.74</v>
+        <v>-11.61</v>
       </c>
       <c r="F12" t="n">
-        <v>0.98</v>
+        <v>0.893</v>
       </c>
       <c r="G12" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="H12" t="n">
         <v>0.06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="J12" t="n">
-        <v>0.138</v>
+        <v>0.38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="13">
@@ -1160,25 +2867,43 @@
         <v>6.78</v>
       </c>
       <c r="D13" t="n">
-        <v>55.57</v>
+        <v>51.23</v>
       </c>
       <c r="E13" t="n">
-        <v>-12.68</v>
+        <v>-11.8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.975</v>
+        <v>0.907</v>
       </c>
       <c r="G13" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.43</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.151</v>
+      <c r="K13" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="14">
@@ -1192,25 +2917,43 @@
         <v>5.93</v>
       </c>
       <c r="D14" t="n">
-        <v>47.35</v>
+        <v>44.68</v>
       </c>
       <c r="E14" t="n">
-        <v>-12.3</v>
+        <v>-11.68</v>
       </c>
       <c r="F14" t="n">
-        <v>0.946</v>
+        <v>0.899</v>
       </c>
       <c r="G14" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="H14" t="n">
         <v>0.1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="J14" t="n">
-        <v>0.168</v>
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="15">
@@ -1224,25 +2967,43 @@
         <v>5.09</v>
       </c>
       <c r="D15" t="n">
-        <v>36.96</v>
+        <v>35.58</v>
       </c>
       <c r="E15" t="n">
-        <v>-11.26</v>
+        <v>-10.89</v>
       </c>
       <c r="F15" t="n">
-        <v>0.865</v>
+        <v>0.837</v>
       </c>
       <c r="G15" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="H15" t="n">
         <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="J15" t="n">
-        <v>0.194</v>
+        <v>0.59</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="16">
@@ -1256,25 +3017,43 @@
         <v>4.24</v>
       </c>
       <c r="D16" t="n">
-        <v>22.62</v>
+        <v>22.19</v>
       </c>
       <c r="E16" t="n">
-        <v>-8.630000000000001</v>
+        <v>-8.49</v>
       </c>
       <c r="F16" t="n">
-        <v>0.663</v>
+        <v>0.652</v>
       </c>
       <c r="G16" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="H16" t="n">
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="J16" t="n">
-        <v>0.234</v>
+        <v>0.74</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.648</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
@@ -1297,7 +3076,7 @@
         <v>0.151</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H17" t="n">
         <v>0.32</v>
@@ -1306,13 +3085,31 @@
         <v>0.87</v>
       </c>
       <c r="J17" t="n">
-        <v>0.303</v>
+        <v>0.98</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B5:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F17">
     <cfRule type="dataBar" priority="1">
@@ -1323,7 +3120,25 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J17">
+  <conditionalFormatting sqref="K3:K17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00FF0000"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00FF0000"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M17">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1336,7 +3151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1375,7 +3190,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9800683343788894</v>
+        <v>0.9074706276979422</v>
       </c>
     </row>
   </sheetData>

--- a/3DBeam/output/Berechnungs_Ergebnisse.xlsx
+++ b/3DBeam/output/Berechnungs_Ergebnisse.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QS_Werte" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einwirkung" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einwirkung_design" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berechnungs_Ergebnisse" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ausnutzungen_max" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -478,6 +478,7 @@
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -598,7 +599,8 @@
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
-      <c r="F5" s="3" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
@@ -624,6 +626,11 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
+          <t>U [m]</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
           <t>t [m]</t>
         </is>
       </c>
@@ -645,6 +652,9 @@
         <v>13.82</v>
       </c>
       <c r="F8" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -665,6 +675,9 @@
         <v>12.76</v>
       </c>
       <c r="F9" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -685,6 +698,9 @@
         <v>11.7</v>
       </c>
       <c r="F10" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -705,6 +721,9 @@
         <v>10.64</v>
       </c>
       <c r="F11" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -725,6 +744,9 @@
         <v>9.58</v>
       </c>
       <c r="F12" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -745,6 +767,9 @@
         <v>8.52</v>
       </c>
       <c r="F13" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -765,6 +790,9 @@
         <v>7.46</v>
       </c>
       <c r="F14" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -785,6 +813,9 @@
         <v>6.39</v>
       </c>
       <c r="F15" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -805,6 +836,9 @@
         <v>5.33</v>
       </c>
       <c r="F16" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -825,12 +859,15 @@
         <v>4.27</v>
       </c>
       <c r="F17" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -842,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,9 +903,6 @@
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
     <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="15" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -884,29 +918,65 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gamma_q</t>
+          <t>Kopflast</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gamma_g</t>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dlc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>vorspannung</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>@max Fx</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.3_seed2_9ms</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1.35</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -931,10 +1001,7 @@
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -960,154 +1027,125 @@
       <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Komponente</t>
+          <t>Ew. Dauer</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Fx [kN]</t>
+          <t>ständig</t>
         </is>
       </c>
       <c r="C7" s="2" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>Gravity [kN]</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>Fy [kN]</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>Imp_hor_ers. [kN]</t>
-        </is>
-      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>kurz</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>egal</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
       <c r="M7" s="3" t="n"/>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>Mz [kNm]</t>
+          <t>spannkraft</t>
         </is>
       </c>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="3" t="n"/>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>Mx [kNm]</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Ew. Dauer</t>
+          <t>Komponente</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>ständig</t>
+          <t>Fx [kN]</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>kurz</t>
+          <t>Fy [kN]</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>egal</t>
+          <t>Mz [kNm]</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>ständig</t>
+          <t>Mx [kNm]</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>kurz</t>
+          <t>Fx [kN]</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>egal</t>
+          <t>Fy [kN]</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>ständig</t>
+          <t>Mz [kNm]</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>kurz</t>
+          <t>Mx [kNm]</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>egal</t>
+          <t>Fx [kN]</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>ständig</t>
+          <t>Fy [kN]</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>kurz</t>
+          <t>Mz [kNm]</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>egal</t>
+          <t>Mx [kNm]</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>ständig</t>
+          <t>Fx [kN]</t>
         </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>kurz</t>
+          <t>Fy [kN]</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>egal</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>ständig</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="inlineStr">
-        <is>
-          <t>kurz</t>
-        </is>
-      </c>
-      <c r="S8" s="1" t="inlineStr">
-        <is>
-          <t>egal</t>
+          <t>Mz [kNm]</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1154,46 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-1169.68</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1169.68</v>
+      </c>
+      <c r="K10" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>-866.4299999999999</v>
       </c>
-      <c r="G10" t="n">
-        <v>-866.4299999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>42.07</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="11">
@@ -1169,52 +1201,46 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1076.3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>90.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1076.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>95.63</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>-797.26</v>
       </c>
-      <c r="G11" t="n">
-        <v>-797.26</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>95.63</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="12">
@@ -1222,52 +1248,46 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-982.92</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4.91</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-982.92</v>
+      </c>
+      <c r="K12" t="n">
+        <v>102.64</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>-728.09</v>
       </c>
-      <c r="G12" t="n">
-        <v>-728.09</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="J12" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>102.64</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="13">
@@ -1275,52 +1295,46 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-889.54</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>97.94</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-889.54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>102.39</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>-658.92</v>
       </c>
-      <c r="G13" t="n">
-        <v>-658.92</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.39</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="14">
@@ -1328,52 +1342,46 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-796.17</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>94.48</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-796.17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>-589.75</v>
       </c>
-      <c r="G14" t="n">
-        <v>-589.75</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="15">
@@ -1381,52 +1389,46 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-702.79</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>88.63</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-702.79</v>
+      </c>
+      <c r="K15" t="n">
+        <v>92.15000000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>-520.58</v>
       </c>
-      <c r="G15" t="n">
-        <v>-520.58</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>24.84</v>
-      </c>
-      <c r="J15" t="n">
-        <v>24.84</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="16">
@@ -1434,52 +1436,46 @@
         <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-609.41</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>81.06</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-609.41</v>
+      </c>
+      <c r="K16" t="n">
+        <v>84.11</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>-451.42</v>
       </c>
-      <c r="G16" t="n">
-        <v>-451.42</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="J16" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>84.11</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="17">
@@ -1487,52 +1483,46 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-516.03</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-516.03</v>
+      </c>
+      <c r="K17" t="n">
+        <v>74.72</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>-382.25</v>
       </c>
-      <c r="G17" t="n">
-        <v>-382.25</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="J17" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>74.72</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="18">
@@ -1540,52 +1530,46 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-422.66</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>62.13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-422.66</v>
+      </c>
+      <c r="K18" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>-313.08</v>
       </c>
-      <c r="G18" t="n">
-        <v>-313.08</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="J18" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>64.25</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="19">
@@ -1593,52 +1577,46 @@
         <v>9</v>
       </c>
       <c r="B19" t="n">
+        <v>-3548.07</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-91.93000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1195.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-3240</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2310</v>
+      </c>
+      <c r="J19" t="n">
         <v>-3640</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-3640</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1177.17</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1177.17</v>
-      </c>
       <c r="K19" t="n">
-        <v>18.2</v>
+        <v>1213.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-3240</v>
       </c>
       <c r="M19" t="n">
-        <v>18.2</v>
+        <v>2310</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-2628.2</v>
       </c>
       <c r="O19" t="n">
-        <v>-3240</v>
+        <v>1213.8</v>
       </c>
       <c r="P19" t="n">
         <v>-3240</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="29">
@@ -1655,18 +1633,7 @@
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="n"/>
-      <c r="R29" s="2" t="n"/>
-      <c r="S29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1684,162 +1651,77 @@
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
-      <c r="R30" s="2" t="n"/>
-      <c r="S30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Komponente</t>
+          <t>Lasttyp</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Fx [kN]</t>
+          <t>kopflast</t>
         </is>
       </c>
       <c r="C31" s="2" t="n"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>Gravity [kN]</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="3" t="n"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>windkraft</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>eigengewicht</t>
+        </is>
+      </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>Fy [kN]</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="1" t="inlineStr">
-        <is>
-          <t>Imp_hor_ers. [kN]</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="3" t="n"/>
-      <c r="N31" s="1" t="inlineStr">
-        <is>
-          <t>Mz [kNm]</t>
-        </is>
-      </c>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="3" t="n"/>
-      <c r="Q31" s="1" t="inlineStr">
-        <is>
-          <t>Mx [kNm]</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="n"/>
-      <c r="S31" s="3" t="n"/>
+          <t>F_h,ers,imp</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Ew. Dauer</t>
+          <t>Komponente</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>ständig</t>
+          <t>Fy [kN]</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>kurz</t>
+          <t>Fx [kN]</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>egal</t>
+          <t>Mz [kNm]</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>ständig</t>
+          <t>Mx [kNm]</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>kurz</t>
+          <t>Fy [kN]</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>egal</t>
+          <t>Fx [kN]</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>ständig</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>kurz</t>
-        </is>
-      </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>egal</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
-        <is>
-          <t>ständig</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>kurz</t>
-        </is>
-      </c>
-      <c r="M32" s="1" t="inlineStr">
-        <is>
-          <t>egal</t>
-        </is>
-      </c>
-      <c r="N32" s="1" t="inlineStr">
-        <is>
-          <t>ständig</t>
-        </is>
-      </c>
-      <c r="O32" s="1" t="inlineStr">
-        <is>
-          <t>kurz</t>
-        </is>
-      </c>
-      <c r="P32" s="1" t="inlineStr">
-        <is>
-          <t>egal</t>
-        </is>
-      </c>
-      <c r="Q32" s="1" t="inlineStr">
-        <is>
-          <t>ständig</t>
-        </is>
-      </c>
-      <c r="R32" s="1" t="inlineStr">
-        <is>
-          <t>kurz</t>
-        </is>
-      </c>
-      <c r="S32" s="1" t="inlineStr">
-        <is>
-          <t>egal</t>
+          <t>Fy [kN]</t>
         </is>
       </c>
     </row>
@@ -1857,43 +1739,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-866.4299999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>36.23</v>
       </c>
       <c r="G34" t="n">
-        <v>-866.4299999999999</v>
+        <v>-1169.68</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="K34" t="n">
         <v>5.85</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="35">
@@ -1910,43 +1765,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-797.26</v>
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>90.25</v>
       </c>
       <c r="G35" t="n">
-        <v>-797.26</v>
+        <v>-1076.3</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K35" t="n">
         <v>5.38</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="36">
@@ -1963,43 +1791,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-728.09</v>
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>97.72</v>
       </c>
       <c r="G36" t="n">
-        <v>-728.09</v>
+        <v>-982.92</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="K36" t="n">
         <v>4.91</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="37">
@@ -2016,43 +1817,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-658.92</v>
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>97.94</v>
       </c>
       <c r="G37" t="n">
-        <v>-658.92</v>
+        <v>-889.54</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="J37" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="K37" t="n">
         <v>4.45</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="38">
@@ -2069,43 +1843,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-589.75</v>
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-589.75</v>
+        <v>-796.17</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="J38" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="K38" t="n">
         <v>3.98</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="39">
@@ -2122,43 +1869,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-520.58</v>
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>88.63</v>
       </c>
       <c r="G39" t="n">
-        <v>-520.58</v>
+        <v>-702.79</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>24.84</v>
-      </c>
-      <c r="J39" t="n">
-        <v>24.84</v>
-      </c>
-      <c r="K39" t="n">
         <v>3.51</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="40">
@@ -2175,43 +1895,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-451.42</v>
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>81.06</v>
       </c>
       <c r="G40" t="n">
-        <v>-451.42</v>
+        <v>-609.41</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="J40" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="K40" t="n">
         <v>3.05</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="41">
@@ -2228,43 +1921,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-382.25</v>
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>72.14</v>
       </c>
       <c r="G41" t="n">
-        <v>-382.25</v>
+        <v>-516.03</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="J41" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="K41" t="n">
         <v>2.58</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="42">
@@ -2281,43 +1947,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-313.08</v>
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>62.13</v>
       </c>
       <c r="G42" t="n">
-        <v>-313.08</v>
+        <v>-422.66</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="J42" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="K42" t="n">
         <v>2.11</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2310</v>
       </c>
     </row>
     <row r="43">
@@ -2325,72 +1964,38 @@
         <v>9</v>
       </c>
       <c r="B43" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C43" t="n">
         <v>-3640</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
       <c r="D43" t="n">
-        <v>-3640</v>
+        <v>-3240</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2310</v>
+      </c>
+      <c r="F43" t="n">
+        <v>25.6</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1177.17</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1177.17</v>
-      </c>
-      <c r="K43" t="n">
         <v>18.2</v>
       </c>
-      <c r="M43" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>-3240</v>
-      </c>
-      <c r="P43" t="n">
-        <v>-3240</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2310</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2310</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
+  <mergeCells count="9">
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B29:S29"/>
-    <mergeCell ref="B30:S30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2527,7 +2132,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ergebnisse</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -2617,34 +2222,34 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>67.06999999999999</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.15</v>
+        <v>-12.34</v>
       </c>
       <c r="F8" t="n">
-        <v>0.781</v>
+        <v>0.953</v>
       </c>
       <c r="G8" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="H8" t="n">
         <v>0.03</v>
       </c>
       <c r="I8" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="J8" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="K8" t="n">
-        <v>0.067</v>
+        <v>0.089</v>
       </c>
       <c r="L8" t="n">
-        <v>0.244</v>
+        <v>0.322</v>
       </c>
       <c r="M8" t="n">
-        <v>0.603</v>
+        <v>0.797</v>
       </c>
       <c r="N8" t="n">
         <v>3.6</v>
@@ -2667,34 +2272,34 @@
         <v>10.16</v>
       </c>
       <c r="D9" t="n">
-        <v>65.23999999999999</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.53</v>
+        <v>-12.53</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="n">
         <v>0.04</v>
       </c>
       <c r="I9" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="J9" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="K9" t="n">
-        <v>0.073</v>
+        <v>0.095</v>
       </c>
       <c r="L9" t="n">
-        <v>0.264</v>
+        <v>0.345</v>
       </c>
       <c r="M9" t="n">
-        <v>0.653</v>
+        <v>0.853</v>
       </c>
       <c r="N9" t="n">
         <v>3.6</v>
@@ -2717,34 +2322,34 @@
         <v>9.31</v>
       </c>
       <c r="D10" t="n">
-        <v>62.89</v>
+        <v>76.17</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.91</v>
+        <v>-12.71</v>
       </c>
       <c r="F10" t="n">
-        <v>0.84</v>
+        <v>0.981</v>
       </c>
       <c r="G10" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="H10" t="n">
         <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="J10" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="K10" t="n">
-        <v>0.079</v>
+        <v>0.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.285</v>
+        <v>0.362</v>
       </c>
       <c r="M10" t="n">
-        <v>0.707</v>
+        <v>0.897</v>
       </c>
       <c r="N10" t="n">
         <v>3.6</v>
@@ -2767,34 +2372,34 @@
         <v>8.470000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>59.93</v>
+        <v>70.66</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.28</v>
+        <v>-12.86</v>
       </c>
       <c r="F11" t="n">
-        <v>0.868</v>
+        <v>0.992</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="H11" t="n">
         <v>0.05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="J11" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="L11" t="n">
-        <v>0.312</v>
+        <v>0.383</v>
       </c>
       <c r="M11" t="n">
-        <v>0.772</v>
+        <v>0.948</v>
       </c>
       <c r="N11" t="n">
         <v>3.6</v>
@@ -2817,34 +2422,34 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="n">
-        <v>56.14</v>
+        <v>64.52</v>
       </c>
       <c r="E12" t="n">
-        <v>-11.61</v>
+        <v>-12.94</v>
       </c>
       <c r="F12" t="n">
-        <v>0.893</v>
+        <v>0.998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="H12" t="n">
         <v>0.06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="J12" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="K12" t="n">
-        <v>0.095</v>
+        <v>0.113</v>
       </c>
       <c r="L12" t="n">
-        <v>0.346</v>
+        <v>0.41</v>
       </c>
       <c r="M12" t="n">
-        <v>0.855</v>
+        <v>1.014</v>
       </c>
       <c r="N12" t="n">
         <v>3.6</v>
@@ -2867,34 +2472,34 @@
         <v>6.78</v>
       </c>
       <c r="D13" t="n">
-        <v>51.23</v>
+        <v>57.49</v>
       </c>
       <c r="E13" t="n">
-        <v>-11.8</v>
+        <v>-12.88</v>
       </c>
       <c r="F13" t="n">
-        <v>0.907</v>
+        <v>0.994</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="H13" t="n">
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="J13" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="K13" t="n">
-        <v>0.107</v>
+        <v>0.123</v>
       </c>
       <c r="L13" t="n">
-        <v>0.39</v>
+        <v>0.446</v>
       </c>
       <c r="M13" t="n">
-        <v>0.964</v>
+        <v>1.103</v>
       </c>
       <c r="N13" t="n">
         <v>3.6</v>
@@ -2917,34 +2522,34 @@
         <v>5.93</v>
       </c>
       <c r="D14" t="n">
-        <v>44.68</v>
+        <v>49.09</v>
       </c>
       <c r="E14" t="n">
-        <v>-11.68</v>
+        <v>-12.51</v>
       </c>
       <c r="F14" t="n">
-        <v>0.899</v>
+        <v>0.965</v>
       </c>
       <c r="G14" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="H14" t="n">
         <v>0.1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="K14" t="n">
-        <v>0.124</v>
+        <v>0.137</v>
       </c>
       <c r="L14" t="n">
-        <v>0.45</v>
+        <v>0.497</v>
       </c>
       <c r="M14" t="n">
-        <v>1.113</v>
+        <v>1.229</v>
       </c>
       <c r="N14" t="n">
         <v>3.6</v>
@@ -2967,34 +2572,34 @@
         <v>5.09</v>
       </c>
       <c r="D15" t="n">
-        <v>35.58</v>
+        <v>38.49</v>
       </c>
       <c r="E15" t="n">
-        <v>-10.89</v>
+        <v>-11.47</v>
       </c>
       <c r="F15" t="n">
-        <v>0.837</v>
+        <v>0.884</v>
       </c>
       <c r="G15" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="H15" t="n">
         <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="K15" t="n">
-        <v>0.147</v>
+        <v>0.157</v>
       </c>
       <c r="L15" t="n">
-        <v>0.536</v>
+        <v>0.572</v>
       </c>
       <c r="M15" t="n">
-        <v>1.326</v>
+        <v>1.415</v>
       </c>
       <c r="N15" t="n">
         <v>3.6</v>
@@ -3017,34 +2622,34 @@
         <v>4.24</v>
       </c>
       <c r="D16" t="n">
-        <v>22.19</v>
+        <v>24.02</v>
       </c>
       <c r="E16" t="n">
-        <v>-8.49</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.652</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H16" t="n">
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="J16" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="K16" t="n">
-        <v>0.183</v>
+        <v>0.19</v>
       </c>
       <c r="L16" t="n">
-        <v>0.666</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>1.648</v>
+        <v>1.707</v>
       </c>
       <c r="N16" t="n">
         <v>3.6</v>
@@ -3067,34 +2672,34 @@
         <v>3.4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.75</v>
+        <v>2.11</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.99</v>
+        <v>-2.28</v>
       </c>
       <c r="F17" t="n">
-        <v>0.151</v>
+        <v>0.176</v>
       </c>
       <c r="G17" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0.32</v>
       </c>
       <c r="I17" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J17" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="K17" t="n">
-        <v>0.243</v>
+        <v>0.245</v>
       </c>
       <c r="L17" t="n">
-        <v>0.883</v>
+        <v>0.892</v>
       </c>
       <c r="M17" t="n">
-        <v>2.185</v>
+        <v>2.207</v>
       </c>
       <c r="N17" t="n">
         <v>3.6</v>
@@ -3190,7 +2795,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9074706276979422</v>
+        <v>0.9984383760657998</v>
       </c>
     </row>
   </sheetData>

--- a/3DBeam/output/Berechnungs_Ergebnisse.xlsx
+++ b/3DBeam/output/Berechnungs_Ergebnisse.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QS_Werte" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einwirkung_design" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berechnungs_Ergebnisse" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ausnutzungen_max" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vorspannung_Staffelung" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berechnungs_Ergebnisse" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ausnutzungen_max" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2629,6 +2630,375 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A5:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Nabenhöhe</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Querschnitt</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Ring Gerade t40</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Höhe [m]</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>d_achse [m]</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>P_erf,end [MN]</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>n EX-84</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>n Mono-5</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>n int. Summe</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>P_ist Fuge [MN]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34</v>
+      </c>
+      <c r="H9" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H10" t="n">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" t="n">
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>130</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2880,10 +3250,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.962</v>
+        <v>0.964</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
@@ -2939,10 +3309,10 @@
         <v>1.93</v>
       </c>
       <c r="H9" t="n">
-        <v>-14.19</v>
+        <v>-14.25</v>
       </c>
       <c r="I9" t="n">
-        <v>0.977</v>
+        <v>0.981</v>
       </c>
       <c r="J9" t="n">
         <v>3.47</v>
@@ -2998,10 +3368,10 @@
         <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>-14.39</v>
+        <v>-14.42</v>
       </c>
       <c r="I10" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="J10" t="n">
         <v>3.62</v>
@@ -3057,10 +3427,10 @@
         <v>1.72</v>
       </c>
       <c r="H11" t="n">
-        <v>-14.55</v>
+        <v>-14.59</v>
       </c>
       <c r="I11" t="n">
-        <v>1.001</v>
+        <v>1.005</v>
       </c>
       <c r="J11" t="n">
         <v>3.79</v>
@@ -3116,10 +3486,10 @@
         <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>-14.63</v>
+        <v>-14.64</v>
       </c>
       <c r="I12" t="n">
-        <v>1.006</v>
+        <v>1.007</v>
       </c>
       <c r="J12" t="n">
         <v>4.01</v>
@@ -3175,10 +3545,10 @@
         <v>1.52</v>
       </c>
       <c r="H13" t="n">
-        <v>-14.55</v>
+        <v>-14.64</v>
       </c>
       <c r="I13" t="n">
-        <v>1.001</v>
+        <v>1.007</v>
       </c>
       <c r="J13" t="n">
         <v>4.3</v>
@@ -3234,10 +3604,10 @@
         <v>1.43</v>
       </c>
       <c r="H14" t="n">
-        <v>-14.13</v>
+        <v>-14.17</v>
       </c>
       <c r="I14" t="n">
-        <v>0.971</v>
+        <v>0.975</v>
       </c>
       <c r="J14" t="n">
         <v>4.72</v>
@@ -3293,10 +3663,10 @@
         <v>1.35</v>
       </c>
       <c r="H15" t="n">
-        <v>-12.93</v>
+        <v>-14.75</v>
       </c>
       <c r="I15" t="n">
-        <v>0.889</v>
+        <v>1.035</v>
       </c>
       <c r="J15" t="n">
         <v>5.33</v>
@@ -3352,10 +3722,10 @@
         <v>1.27</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.970000000000001</v>
+        <v>-14.95</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6860000000000001</v>
+        <v>1.087</v>
       </c>
       <c r="J16" t="n">
         <v>6.28</v>
@@ -3411,10 +3781,10 @@
         <v>1.21</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.54</v>
+        <v>-13.83</v>
       </c>
       <c r="I17" t="n">
-        <v>0.174</v>
+        <v>1.085</v>
       </c>
       <c r="J17" t="n">
         <v>7.86</v>
@@ -3492,7 +3862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3531,7 +3901,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.006327040795289</v>
+        <v>1.086589733120714</v>
       </c>
     </row>
   </sheetData>

--- a/3DBeam/output/Berechnungs_Ergebnisse.xlsx
+++ b/3DBeam/output/Berechnungs_Ergebnisse.xlsx
@@ -480,6 +480,7 @@
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -634,14 +635,15 @@
       <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t40</t>
+          <t>Ring Gerade t36</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
@@ -675,6 +677,11 @@
           <t>t [m]</t>
         </is>
       </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>V_section [m³]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -697,6 +704,9 @@
       </c>
       <c r="G8" t="n">
         <v>0.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>170.88</v>
       </c>
     </row>
     <row r="9">
@@ -721,6 +731,9 @@
       <c r="G9" t="n">
         <v>0.36</v>
       </c>
+      <c r="H9" t="n">
+        <v>157.24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,6 +757,9 @@
       <c r="G10" t="n">
         <v>0.36</v>
       </c>
+      <c r="H10" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -767,6 +783,9 @@
       <c r="G11" t="n">
         <v>0.36</v>
       </c>
+      <c r="H11" t="n">
+        <v>129.96</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -790,6 +809,9 @@
       <c r="G12" t="n">
         <v>0.36</v>
       </c>
+      <c r="H12" t="n">
+        <v>116.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -813,6 +835,9 @@
       <c r="G13" t="n">
         <v>0.36</v>
       </c>
+      <c r="H13" t="n">
+        <v>102.67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -836,6 +861,9 @@
       <c r="G14" t="n">
         <v>0.36</v>
       </c>
+      <c r="H14" t="n">
+        <v>89.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -859,6 +887,9 @@
       <c r="G15" t="n">
         <v>0.36</v>
       </c>
+      <c r="H15" t="n">
+        <v>75.39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -882,6 +913,9 @@
       <c r="G16" t="n">
         <v>0.36</v>
       </c>
+      <c r="H16" t="n">
+        <v>61.75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -905,10 +939,13 @@
       <c r="G17" t="n">
         <v>0.36</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1046,7 +1083,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t40</t>
+          <t>Ring Gerade t36</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -1981,7 +2018,7 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t40</t>
+          <t>Ring Gerade t36</t>
         </is>
       </c>
       <c r="C35" s="2" t="n"/>
@@ -2672,7 +2709,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t40</t>
+          <t>Ring Gerade t36</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -2738,7 +2775,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
@@ -2764,7 +2801,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
@@ -2790,7 +2827,7 @@
         <v>76.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
@@ -2816,7 +2853,7 @@
         <v>71.2</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>6</v>
@@ -2842,7 +2879,7 @@
         <v>64.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
@@ -2868,7 +2905,7 @@
         <v>57.7</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
@@ -2894,7 +2931,7 @@
         <v>49.1</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2920,7 +2957,7 @@
         <v>38.4</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2946,7 +2983,7 @@
         <v>23.9</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2999,7 +3036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3026,6 +3063,7 @@
     <col width="17" customWidth="1" min="17" max="17"/>
     <col width="17" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3058,7 +3096,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ring Gerade t40</t>
+          <t>Ring Gerade t36</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3099,7 +3137,8 @@
       <c r="P4" s="2" t="n"/>
       <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
-      <c r="S4" s="3" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3109,7 +3148,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t40</t>
+          <t>Ring Gerade t36</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
@@ -3128,7 +3167,8 @@
       <c r="P5" s="2" t="n"/>
       <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
-      <c r="S5" s="3" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3153,75 +3193,80 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
+          <t>P_ist [MN]</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
           <t>M [MNm]</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>N [MN]</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>Q [MN]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>σ_druck [N/mm²]</t>
-        </is>
-      </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
+          <t>σ_min [N/mm²]</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
           <t>Ausn. druck</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>τ_Fe [N/mm²]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>τ_längs [N/mm²]</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>Ausn. schub Furnier</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>Ausn. schub längs</t>
         </is>
       </c>
-      <c r="N6" s="1" t="inlineStr">
+      <c r="O6" s="1" t="inlineStr">
         <is>
           <t>nxy_Qy [kN/m]</t>
         </is>
       </c>
-      <c r="O6" s="1" t="inlineStr">
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t>nxy_Mx [kNm/m]</t>
         </is>
       </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>nxy_P [kN/m]</t>
-        </is>
-      </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
+          <t>nxy_P,Rd [kN/m]</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
           <t>Ausn. reibung</t>
         </is>
       </c>
-      <c r="R6" s="1" t="inlineStr">
+      <c r="S6" s="1" t="inlineStr">
         <is>
           <t>fvd_Fe</t>
         </is>
       </c>
-      <c r="S6" s="1" t="inlineStr">
+      <c r="T6" s="1" t="inlineStr">
         <is>
           <t>fvd_längs</t>
         </is>
@@ -3241,48 +3286,51 @@
         <v>86.84999999999999</v>
       </c>
       <c r="E8" t="n">
+        <v>87.12</v>
+      </c>
+      <c r="F8" t="n">
         <v>-206.94</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-10.21</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-14</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.964</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>3.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.39</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.12</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.11</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>363.35</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>12.15</v>
       </c>
-      <c r="P8" t="n">
-        <v>1256.66</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0.299</v>
+        <v>1260.48</v>
       </c>
       <c r="R8" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="S8" t="n">
         <v>27.9</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3291,57 +3339,60 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>14.44</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="n">
-        <v>10.16</v>
+        <v>10.62</v>
       </c>
       <c r="D9" t="n">
-        <v>82.06999999999999</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>-178.74</v>
+        <v>87.12</v>
       </c>
       <c r="F9" t="n">
-        <v>-9.140000000000001</v>
+        <v>-194.08</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>-14.25</v>
+        <v>1.98</v>
       </c>
       <c r="I9" t="n">
-        <v>0.981</v>
+        <v>-14.27</v>
       </c>
       <c r="J9" t="n">
-        <v>3.47</v>
+        <v>0.985</v>
       </c>
       <c r="K9" t="n">
-        <v>0.41</v>
+        <v>3.39</v>
       </c>
       <c r="L9" t="n">
-        <v>0.127</v>
+        <v>0.4</v>
       </c>
       <c r="M9" t="n">
-        <v>0.116</v>
+        <v>0.124</v>
       </c>
       <c r="N9" t="n">
-        <v>380.01</v>
+        <v>0.113</v>
       </c>
       <c r="O9" t="n">
-        <v>14.26</v>
+        <v>372.54</v>
       </c>
       <c r="P9" t="n">
-        <v>1286.19</v>
+        <v>13.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.307</v>
+        <v>1305.58</v>
       </c>
       <c r="R9" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="S9" t="n">
         <v>27.9</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3350,57 +3401,60 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>28.89</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>9.31</v>
+        <v>10.24</v>
       </c>
       <c r="D10" t="n">
-        <v>76.86</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>-151.92</v>
+        <v>87.12</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.15</v>
+        <v>-181.47</v>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>-9.24</v>
       </c>
       <c r="H10" t="n">
-        <v>-14.42</v>
+        <v>1.94</v>
       </c>
       <c r="I10" t="n">
-        <v>0.992</v>
+        <v>-14.56</v>
       </c>
       <c r="J10" t="n">
-        <v>3.62</v>
+        <v>1.006</v>
       </c>
       <c r="K10" t="n">
-        <v>0.43</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>0.132</v>
+        <v>0.41</v>
       </c>
       <c r="M10" t="n">
-        <v>0.121</v>
+        <v>0.126</v>
       </c>
       <c r="N10" t="n">
-        <v>392.84</v>
+        <v>0.116</v>
       </c>
       <c r="O10" t="n">
-        <v>16.96</v>
+        <v>378.77</v>
       </c>
       <c r="P10" t="n">
-        <v>1313.73</v>
+        <v>14.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.312</v>
+        <v>1354.03</v>
       </c>
       <c r="R10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S10" t="n">
         <v>27.9</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3409,57 +3463,60 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>43.33</v>
+        <v>19.5</v>
       </c>
       <c r="C11" t="n">
-        <v>8.470000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>71.17</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>-126.6</v>
+        <v>82.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.25</v>
+        <v>-169.15</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>-8.779999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>-14.59</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.005</v>
+        <v>-14.47</v>
       </c>
       <c r="J11" t="n">
-        <v>3.79</v>
+        <v>0.999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>3.52</v>
       </c>
       <c r="L11" t="n">
-        <v>0.138</v>
+        <v>0.42</v>
       </c>
       <c r="M11" t="n">
-        <v>0.126</v>
+        <v>0.128</v>
       </c>
       <c r="N11" t="n">
-        <v>407.18</v>
+        <v>0.118</v>
       </c>
       <c r="O11" t="n">
-        <v>20.51</v>
+        <v>384.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1337.79</v>
+        <v>15.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.32</v>
+        <v>1334.74</v>
       </c>
       <c r="R11" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="S11" t="n">
         <v>27.9</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3468,57 +3525,60 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>57.78</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>7.62</v>
+        <v>9.48</v>
       </c>
       <c r="D12" t="n">
-        <v>64.84999999999999</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-102.77</v>
+        <v>82.69</v>
       </c>
       <c r="F12" t="n">
-        <v>-6.43</v>
+        <v>-157.13</v>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>-8.34</v>
       </c>
       <c r="H12" t="n">
-        <v>-14.64</v>
+        <v>1.85</v>
       </c>
       <c r="I12" t="n">
-        <v>1.007</v>
+        <v>-14.78</v>
       </c>
       <c r="J12" t="n">
-        <v>4.01</v>
+        <v>1.022</v>
       </c>
       <c r="K12" t="n">
-        <v>0.47</v>
+        <v>3.59</v>
       </c>
       <c r="L12" t="n">
-        <v>0.146</v>
+        <v>0.42</v>
       </c>
       <c r="M12" t="n">
-        <v>0.134</v>
+        <v>0.131</v>
       </c>
       <c r="N12" t="n">
-        <v>425.08</v>
+        <v>0.12</v>
       </c>
       <c r="O12" t="n">
-        <v>25.31</v>
+        <v>390.25</v>
       </c>
       <c r="P12" t="n">
-        <v>1354.11</v>
+        <v>16.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.333</v>
+        <v>1388.24</v>
       </c>
       <c r="R12" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="S12" t="n">
         <v>27.9</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3527,57 +3587,60 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>72.22</v>
+        <v>32.5</v>
       </c>
       <c r="C13" t="n">
-        <v>6.78</v>
+        <v>9.1</v>
       </c>
       <c r="D13" t="n">
-        <v>57.66</v>
+        <v>76.86</v>
       </c>
       <c r="E13" t="n">
-        <v>-80.41</v>
+        <v>77.16</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.7</v>
+        <v>-145.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>-7.92</v>
       </c>
       <c r="H13" t="n">
-        <v>-14.64</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.007</v>
+        <v>-14.59</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>1.006</v>
       </c>
       <c r="K13" t="n">
-        <v>0.51</v>
+        <v>3.66</v>
       </c>
       <c r="L13" t="n">
-        <v>0.156</v>
+        <v>0.43</v>
       </c>
       <c r="M13" t="n">
-        <v>0.143</v>
+        <v>0.133</v>
       </c>
       <c r="N13" t="n">
-        <v>448.88</v>
+        <v>0.122</v>
       </c>
       <c r="O13" t="n">
-        <v>32.01</v>
+        <v>396.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1354.04</v>
+        <v>17.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.355</v>
+        <v>1349.41</v>
       </c>
       <c r="R13" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="S13" t="n">
         <v>27.9</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3586,57 +3649,60 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>86.67</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>5.93</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>49.14</v>
+        <v>76.86</v>
       </c>
       <c r="E14" t="n">
-        <v>-59.42</v>
+        <v>77.16</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.06</v>
+        <v>-134</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43</v>
+        <v>-7.51</v>
       </c>
       <c r="H14" t="n">
-        <v>-14.17</v>
+        <v>1.76</v>
       </c>
       <c r="I14" t="n">
-        <v>0.975</v>
+        <v>-14.92</v>
       </c>
       <c r="J14" t="n">
-        <v>4.72</v>
+        <v>1.032</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5600000000000001</v>
+        <v>3.73</v>
       </c>
       <c r="L14" t="n">
-        <v>0.171</v>
+        <v>0.44</v>
       </c>
       <c r="M14" t="n">
-        <v>0.157</v>
+        <v>0.136</v>
       </c>
       <c r="N14" t="n">
-        <v>481.86</v>
+        <v>0.125</v>
       </c>
       <c r="O14" t="n">
-        <v>41.77</v>
+        <v>402.59</v>
       </c>
       <c r="P14" t="n">
-        <v>1318.12</v>
+        <v>19.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.397</v>
+        <v>1408.21</v>
       </c>
       <c r="R14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S14" t="n">
         <v>27.9</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3645,57 +3711,60 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>101.11</v>
+        <v>45.5</v>
       </c>
       <c r="C15" t="n">
-        <v>5.09</v>
+        <v>8.34</v>
       </c>
       <c r="D15" t="n">
-        <v>38.42</v>
+        <v>71.17</v>
       </c>
       <c r="E15" t="n">
-        <v>-39.66</v>
+        <v>71.62</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.5</v>
+        <v>-122.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.35</v>
+        <v>-7.12</v>
       </c>
       <c r="H15" t="n">
-        <v>-14.75</v>
+        <v>1.71</v>
       </c>
       <c r="I15" t="n">
-        <v>1.035</v>
+        <v>-14.7</v>
       </c>
       <c r="J15" t="n">
-        <v>5.33</v>
+        <v>1.013</v>
       </c>
       <c r="K15" t="n">
-        <v>0.63</v>
+        <v>3.82</v>
       </c>
       <c r="L15" t="n">
-        <v>0.193</v>
+        <v>0.45</v>
       </c>
       <c r="M15" t="n">
-        <v>0.177</v>
+        <v>0.139</v>
       </c>
       <c r="N15" t="n">
-        <v>529.16</v>
+        <v>0.127</v>
       </c>
       <c r="O15" t="n">
-        <v>56.79</v>
+        <v>409.57</v>
       </c>
       <c r="P15" t="n">
-        <v>1201.6</v>
+        <v>21.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.488</v>
+        <v>1366.75</v>
       </c>
       <c r="R15" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="S15" t="n">
         <v>27.9</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3704,57 +3773,60 @@
         <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>115.56</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
-        <v>4.24</v>
+        <v>7.96</v>
       </c>
       <c r="D16" t="n">
-        <v>23.89</v>
+        <v>71.17</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.98</v>
+        <v>71.62</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.03</v>
+        <v>-112.1</v>
       </c>
       <c r="G16" t="n">
-        <v>1.27</v>
+        <v>-6.75</v>
       </c>
       <c r="H16" t="n">
-        <v>-14.95</v>
+        <v>1.66</v>
       </c>
       <c r="I16" t="n">
-        <v>1.087</v>
+        <v>-15.06</v>
       </c>
       <c r="J16" t="n">
-        <v>6.28</v>
+        <v>1.041</v>
       </c>
       <c r="K16" t="n">
-        <v>0.74</v>
+        <v>3.91</v>
       </c>
       <c r="L16" t="n">
-        <v>0.227</v>
+        <v>0.46</v>
       </c>
       <c r="M16" t="n">
-        <v>0.208</v>
+        <v>0.142</v>
       </c>
       <c r="N16" t="n">
-        <v>599.9</v>
+        <v>0.13</v>
       </c>
       <c r="O16" t="n">
-        <v>81.63</v>
+        <v>417.34</v>
       </c>
       <c r="P16" t="n">
-        <v>895.64</v>
+        <v>23.21</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.761</v>
+        <v>1432</v>
       </c>
       <c r="R16" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="S16" t="n">
         <v>27.9</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3763,66 +3835,751 @@
         <v>9</v>
       </c>
       <c r="B17" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-101.61</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-14.68</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="O17" t="n">
+        <v>426.09</v>
+      </c>
+      <c r="P17" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1364.33</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="S17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="n">
+        <v>65</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-91.40000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-6.06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-15.04</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="O18" t="n">
+        <v>436.05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1436.33</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="S18" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D19" t="n">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-81.48</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-5.74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-15.42</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="O19" t="n">
+        <v>447.48</v>
+      </c>
+      <c r="P19" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1516.36</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="S19" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="n">
+        <v>78</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="E20" t="n">
+        <v>58.34</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-71.84</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-14.95</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="O20" t="n">
+        <v>460.7</v>
+      </c>
+      <c r="P20" t="n">
+        <v>35.46</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1441.69</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="S20" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D21" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="E21" t="n">
+        <v>58.34</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-62.47</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-15.31</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="O21" t="n">
+        <v>476.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>40.04</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1532.09</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="S21" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" t="n">
+        <v>91</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D22" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-53.34</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-14.36</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="O22" t="n">
+        <v>494.16</v>
+      </c>
+      <c r="P22" t="n">
+        <v>45.58</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1386.45</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="S22" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="E23" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-44.46</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4.63</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-14.62</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="O23" t="n">
+        <v>515.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>52.35</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1485.85</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="S23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>104</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="D24" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="E24" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-35.81</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-14.83</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="O24" t="n">
+        <v>540.9299999999999</v>
+      </c>
+      <c r="P24" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1600.61</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="S24" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D25" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="E25" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-27.38</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-14.95</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="O25" t="n">
+        <v>571.52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>71.34999999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1734.59</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="S25" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" t="n">
+        <v>117</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D26" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-19.15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-14.92</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="O26" t="n">
+        <v>608.74</v>
+      </c>
+      <c r="P26" t="n">
+        <v>84.98</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1893.03</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="S26" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="E27" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-11.11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-14.61</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="O27" t="n">
+        <v>654.63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>102.92</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2083.34</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="S27" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" t="n">
         <v>130</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C28" t="n">
         <v>3.4</v>
       </c>
-      <c r="D17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D28" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="E28" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="F28" t="n">
         <v>-3.24</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G28" t="n">
         <v>-3.64</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H28" t="n">
         <v>1.21</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I28" t="n">
         <v>-13.83</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J28" t="n">
         <v>1.085</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K28" t="n">
         <v>7.86</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L28" t="n">
         <v>0.93</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M28" t="n">
         <v>0.284</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N28" t="n">
         <v>0.26</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O28" t="n">
         <v>712.14</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P28" t="n">
         <v>127.21</v>
       </c>
-      <c r="P17" t="n">
-        <v>95.38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q28" t="n">
+        <v>2316.18</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="S28" t="n">
         <v>27.9</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T28" t="n">
         <v>3.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B5:T5"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I17">
+  <conditionalFormatting sqref="J3:J28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3831,7 +4588,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L17">
+  <conditionalFormatting sqref="M3:M28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3840,7 +4597,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M17">
+  <conditionalFormatting sqref="N3:N28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3849,7 +4606,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q17">
+  <conditionalFormatting sqref="R3:R28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3890,7 +4647,7 @@
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t40</t>
+          <t>Ring Gerade t36</t>
         </is>
       </c>
     </row>
@@ -3901,7 +4658,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.086589733120714</v>
+        <v>1.097742484745861</v>
       </c>
     </row>
   </sheetData>

--- a/3DBeam/output/Berechnungs_Ergebnisse.xlsx
+++ b/3DBeam/output/Berechnungs_Ergebnisse.xlsx
@@ -10,8 +10,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QS_Werte" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Einwirkung_design" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vorspannung_Staffelung" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berechnungs_Ergebnisse" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ausnutzungen_max" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hinweise_Berechnung" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berechnungs_Ergebnisse" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ausnutzungen_max" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bauzustand" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,17 +35,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -92,18 +89,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00ffc7ce"/>
+          <bgColor rgb="00ffc7ce"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -473,14 +479,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="13" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -635,7 +652,7 @@
       <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t36</t>
+          <t>Ring Gerade t0.378</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
@@ -682,6 +699,41 @@
           <t>V_section [m³]</t>
         </is>
       </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>ortho</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>ti m</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>di m</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[10.871 10.491 10.111  9.731  9.351  8.971  8.591  8.211  7.831  7.451
+  7.071  6.691  6.311  5.931  5.551  5.171  4.791  4.411  4.031  3.651
+  3.271]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,19 +746,37 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>186.27</v>
+        <v>197.81</v>
       </c>
       <c r="E8" t="n">
-        <v>12.3</v>
+        <v>13.06</v>
       </c>
       <c r="F8" t="n">
         <v>34.56</v>
       </c>
       <c r="G8" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H8" t="n">
-        <v>170.88</v>
+        <v>181.44</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[10.9355 10.5555 10.1755  9.7955  9.4155  9.0355  8.6555  8.2755  7.8955
+  7.5155  7.1355  6.7555  6.3755  5.9955  5.6155  5.2355  4.8555  4.4755
+  4.0955  3.7155  3.3355]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -720,19 +790,36 @@
         <v>10.16</v>
       </c>
       <c r="D9" t="n">
-        <v>146.61</v>
+        <v>155.69</v>
       </c>
       <c r="E9" t="n">
-        <v>11.36</v>
+        <v>12.06</v>
       </c>
       <c r="F9" t="n">
         <v>31.9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H9" t="n">
-        <v>157.24</v>
+        <v>166.96</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[11.   10.62 10.24  9.86  9.48  9.1   8.72  8.34  7.96  7.58  7.2   6.82
+  6.44  6.06  5.68  5.3   4.92  4.54  4.16  3.78  3.4 ]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -746,19 +833,37 @@
         <v>9.31</v>
       </c>
       <c r="D10" t="n">
-        <v>113.02</v>
+        <v>120.02</v>
       </c>
       <c r="E10" t="n">
-        <v>10.41</v>
+        <v>11.06</v>
       </c>
       <c r="F10" t="n">
         <v>29.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H10" t="n">
-        <v>143.6</v>
+        <v>152.47</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[11.0645 10.6845 10.3045  9.9245  9.5445  9.1645  8.7845  8.4045  8.0245
+  7.6445  7.2645  6.8845  6.5045  6.1245  5.7445  5.3645  4.9845  4.6045
+  4.2245  3.8445  3.4645]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -772,19 +877,37 @@
         <v>8.470000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>85</v>
+        <v>90.27</v>
       </c>
       <c r="E11" t="n">
-        <v>9.470000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="F11" t="n">
         <v>26.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H11" t="n">
-        <v>129.96</v>
+        <v>137.99</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[11.129 10.749 10.369  9.989  9.609  9.229  8.849  8.469  8.089  7.709
+  7.329  6.949  6.569  6.189  5.809  5.429  5.049  4.669  4.289  3.909
+  3.529]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -798,19 +921,19 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="n">
-        <v>62.04</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>8.52</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F12" t="n">
         <v>23.95</v>
       </c>
       <c r="G12" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H12" t="n">
-        <v>116.31</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="13">
@@ -824,19 +947,19 @@
         <v>6.78</v>
       </c>
       <c r="D13" t="n">
-        <v>43.65</v>
+        <v>46.36</v>
       </c>
       <c r="E13" t="n">
-        <v>7.58</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>21.29</v>
       </c>
       <c r="G13" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H13" t="n">
-        <v>102.67</v>
+        <v>109.02</v>
       </c>
     </row>
     <row r="14">
@@ -850,19 +973,19 @@
         <v>5.93</v>
       </c>
       <c r="D14" t="n">
-        <v>29.31</v>
+        <v>31.13</v>
       </c>
       <c r="E14" t="n">
-        <v>6.64</v>
+        <v>7.05</v>
       </c>
       <c r="F14" t="n">
         <v>18.64</v>
       </c>
       <c r="G14" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H14" t="n">
-        <v>89.03</v>
+        <v>94.53</v>
       </c>
     </row>
     <row r="15">
@@ -876,19 +999,19 @@
         <v>5.09</v>
       </c>
       <c r="D15" t="n">
-        <v>18.51</v>
+        <v>19.67</v>
       </c>
       <c r="E15" t="n">
-        <v>5.69</v>
+        <v>6.04</v>
       </c>
       <c r="F15" t="n">
         <v>15.99</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H15" t="n">
-        <v>75.39</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="16">
@@ -902,19 +1025,19 @@
         <v>4.24</v>
       </c>
       <c r="D16" t="n">
-        <v>10.77</v>
+        <v>11.44</v>
       </c>
       <c r="E16" t="n">
-        <v>4.75</v>
+        <v>5.04</v>
       </c>
       <c r="F16" t="n">
         <v>13.33</v>
       </c>
       <c r="G16" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H16" t="n">
-        <v>61.75</v>
+        <v>65.56</v>
       </c>
     </row>
     <row r="17">
@@ -928,16 +1051,16 @@
         <v>3.4</v>
       </c>
       <c r="D17" t="n">
-        <v>5.55</v>
+        <v>5.91</v>
       </c>
       <c r="E17" t="n">
-        <v>3.8</v>
+        <v>4.04</v>
       </c>
       <c r="F17" t="n">
         <v>10.68</v>
       </c>
       <c r="G17" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,32 +1116,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>cd</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Kopflast</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>dlc</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>vorspannung</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>günstig</t>
         </is>
       </c>
     </row>
@@ -1031,18 +1164,18 @@
           <t>II</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>@max Fx</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>1.3_seed2_9ms</t>
         </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1.35</v>
       </c>
       <c r="F2" t="n">
         <v>1.35</v>
@@ -1051,6 +1184,12 @@
         <v>1.35</v>
       </c>
       <c r="H2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1083,7 +1222,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t36</t>
+          <t>Ring Gerade t0.378</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -1201,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-493.21</v>
+        <v>-515.5599999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3.95</v>
+        <v>4.12</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1213,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16.3</v>
+        <v>14.82</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1222,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-493.21</v>
+        <v>-515.5599999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>20.25</v>
+        <v>18.94</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1239,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>-475.87</v>
+        <v>-497.44</v>
       </c>
       <c r="C11" t="n">
-        <v>3.81</v>
+        <v>3.98</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1251,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>35.06</v>
+        <v>31.88</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-475.87</v>
+        <v>-497.44</v>
       </c>
       <c r="K11" t="n">
-        <v>38.87</v>
+        <v>35.86</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1277,10 +1416,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>-458.54</v>
+        <v>-479.31</v>
       </c>
       <c r="C12" t="n">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1289,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.93</v>
+        <v>36.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1298,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-458.54</v>
+        <v>-479.31</v>
       </c>
       <c r="K12" t="n">
-        <v>43.6</v>
+        <v>40.13</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1315,10 +1454,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>-441.2</v>
+        <v>-461.19</v>
       </c>
       <c r="C13" t="n">
-        <v>3.53</v>
+        <v>3.69</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1327,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>42.38</v>
+        <v>38.52</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1336,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-441.2</v>
+        <v>-461.19</v>
       </c>
       <c r="K13" t="n">
-        <v>45.91</v>
+        <v>42.21</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1353,10 +1492,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>-423.86</v>
+        <v>-443.07</v>
       </c>
       <c r="C14" t="n">
-        <v>3.39</v>
+        <v>3.54</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1365,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>43.66</v>
+        <v>39.69</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1374,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-423.86</v>
+        <v>-443.07</v>
       </c>
       <c r="K14" t="n">
-        <v>47.05</v>
+        <v>43.23</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1391,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>-406.52</v>
+        <v>-424.94</v>
       </c>
       <c r="C15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1403,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>44.21</v>
+        <v>40.19</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1412,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-406.52</v>
+        <v>-424.94</v>
       </c>
       <c r="K15" t="n">
-        <v>47.46</v>
+        <v>43.59</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1429,10 +1568,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>-389.18</v>
+        <v>-406.82</v>
       </c>
       <c r="C16" t="n">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1441,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.26</v>
+        <v>40.24</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1450,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-389.18</v>
+        <v>-406.82</v>
       </c>
       <c r="K16" t="n">
-        <v>47.37</v>
+        <v>43.49</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1467,10 +1606,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>-371.85</v>
+        <v>-388.7</v>
       </c>
       <c r="C17" t="n">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1479,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>43.93</v>
+        <v>39.93</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1488,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-371.85</v>
+        <v>-388.7</v>
       </c>
       <c r="K17" t="n">
-        <v>46.9</v>
+        <v>43.04</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1505,10 +1644,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>-354.51</v>
+        <v>-370.57</v>
       </c>
       <c r="C18" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1517,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>43.29</v>
+        <v>39.35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1526,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-354.51</v>
+        <v>-370.57</v>
       </c>
       <c r="K18" t="n">
-        <v>46.13</v>
+        <v>42.32</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1543,10 +1682,10 @@
         <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>-337.17</v>
+        <v>-352.45</v>
       </c>
       <c r="C19" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1555,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.41</v>
+        <v>38.55</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1564,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-337.17</v>
+        <v>-352.45</v>
       </c>
       <c r="K19" t="n">
-        <v>45.1</v>
+        <v>41.37</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1581,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="n">
-        <v>-319.83</v>
+        <v>-334.33</v>
       </c>
       <c r="C20" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1593,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>41.31</v>
+        <v>37.56</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1602,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-319.83</v>
+        <v>-334.33</v>
       </c>
       <c r="K20" t="n">
-        <v>43.87</v>
+        <v>40.23</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1619,10 +1758,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>-302.5</v>
+        <v>-316.2</v>
       </c>
       <c r="C21" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1631,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>40.04</v>
+        <v>36.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1640,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-302.5</v>
+        <v>-316.2</v>
       </c>
       <c r="K21" t="n">
-        <v>42.46</v>
+        <v>38.93</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1657,10 +1796,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>-285.16</v>
+        <v>-298.08</v>
       </c>
       <c r="C22" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1669,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>38.6</v>
+        <v>35.09</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1678,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-285.16</v>
+        <v>-298.08</v>
       </c>
       <c r="K22" t="n">
-        <v>40.88</v>
+        <v>37.48</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1695,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>-267.82</v>
+        <v>-279.96</v>
       </c>
       <c r="C23" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1707,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>37.03</v>
+        <v>33.66</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1716,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-267.82</v>
+        <v>-279.96</v>
       </c>
       <c r="K23" t="n">
-        <v>39.17</v>
+        <v>35.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1733,10 +1872,10 @@
         <v>14</v>
       </c>
       <c r="B24" t="n">
-        <v>-250.48</v>
+        <v>-261.83</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1745,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>35.33</v>
+        <v>32.12</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1754,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-250.48</v>
+        <v>-261.83</v>
       </c>
       <c r="K24" t="n">
-        <v>37.33</v>
+        <v>34.21</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1771,10 +1910,10 @@
         <v>15</v>
       </c>
       <c r="B25" t="n">
-        <v>-233.15</v>
+        <v>-243.71</v>
       </c>
       <c r="C25" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1783,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>33.52</v>
+        <v>30.47</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1792,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-233.15</v>
+        <v>-243.71</v>
       </c>
       <c r="K25" t="n">
-        <v>35.38</v>
+        <v>32.42</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1809,10 +1948,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>-215.81</v>
+        <v>-225.59</v>
       </c>
       <c r="C26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1821,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>31.6</v>
+        <v>28.73</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1830,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-215.81</v>
+        <v>-225.59</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33</v>
+        <v>30.53</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1847,10 +1986,10 @@
         <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>-198.47</v>
+        <v>-207.46</v>
       </c>
       <c r="C27" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1859,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>29.59</v>
+        <v>26.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1868,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-198.47</v>
+        <v>-207.46</v>
       </c>
       <c r="K27" t="n">
-        <v>31.17</v>
+        <v>28.56</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1885,10 +2024,10 @@
         <v>18</v>
       </c>
       <c r="B28" t="n">
-        <v>-181.13</v>
+        <v>-189.34</v>
       </c>
       <c r="C28" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1897,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.48</v>
+        <v>24.99</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1906,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-181.13</v>
+        <v>-189.34</v>
       </c>
       <c r="K28" t="n">
-        <v>28.93</v>
+        <v>26.5</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1923,10 +2062,10 @@
         <v>19</v>
       </c>
       <c r="B29" t="n">
-        <v>-163.8</v>
+        <v>-171.22</v>
       </c>
       <c r="C29" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1935,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.3</v>
+        <v>23</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1944,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-163.8</v>
+        <v>-171.22</v>
       </c>
       <c r="K29" t="n">
-        <v>26.61</v>
+        <v>24.37</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1973,7 +2112,7 @@
         <v>-91.93000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>1181.52</v>
+        <v>1180.47</v>
       </c>
       <c r="H30" t="n">
         <v>-3240</v>
@@ -1985,7 +2124,7 @@
         <v>-3640</v>
       </c>
       <c r="K30" t="n">
-        <v>1210.64</v>
+        <v>1209.59</v>
       </c>
       <c r="L30" t="n">
         <v>-3240</v>
@@ -2018,7 +2157,7 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t36</t>
+          <t>Ring Gerade t0.378</t>
         </is>
       </c>
       <c r="C35" s="2" t="n"/>
@@ -2117,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>16.3</v>
+        <v>14.82</v>
       </c>
       <c r="G39" t="n">
-        <v>-493.21</v>
+        <v>-515.5599999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>3.95</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="40">
@@ -2143,13 +2282,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>35.06</v>
+        <v>31.88</v>
       </c>
       <c r="G40" t="n">
-        <v>-475.87</v>
+        <v>-497.44</v>
       </c>
       <c r="H40" t="n">
-        <v>3.81</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="41">
@@ -2169,13 +2308,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>39.93</v>
+        <v>36.3</v>
       </c>
       <c r="G41" t="n">
-        <v>-458.54</v>
+        <v>-479.31</v>
       </c>
       <c r="H41" t="n">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="42">
@@ -2195,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>42.38</v>
+        <v>38.52</v>
       </c>
       <c r="G42" t="n">
-        <v>-441.2</v>
+        <v>-461.19</v>
       </c>
       <c r="H42" t="n">
-        <v>3.53</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="43">
@@ -2221,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>43.66</v>
+        <v>39.69</v>
       </c>
       <c r="G43" t="n">
-        <v>-423.86</v>
+        <v>-443.07</v>
       </c>
       <c r="H43" t="n">
-        <v>3.39</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="44">
@@ -2247,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>44.21</v>
+        <v>40.19</v>
       </c>
       <c r="G44" t="n">
-        <v>-406.52</v>
+        <v>-424.94</v>
       </c>
       <c r="H44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="45">
@@ -2273,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>44.26</v>
+        <v>40.24</v>
       </c>
       <c r="G45" t="n">
-        <v>-389.18</v>
+        <v>-406.82</v>
       </c>
       <c r="H45" t="n">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="46">
@@ -2299,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>43.93</v>
+        <v>39.93</v>
       </c>
       <c r="G46" t="n">
-        <v>-371.85</v>
+        <v>-388.7</v>
       </c>
       <c r="H46" t="n">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="47">
@@ -2325,13 +2464,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>43.29</v>
+        <v>39.35</v>
       </c>
       <c r="G47" t="n">
-        <v>-354.51</v>
+        <v>-370.57</v>
       </c>
       <c r="H47" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="48">
@@ -2351,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>42.41</v>
+        <v>38.55</v>
       </c>
       <c r="G48" t="n">
-        <v>-337.17</v>
+        <v>-352.45</v>
       </c>
       <c r="H48" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="49">
@@ -2377,13 +2516,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>41.31</v>
+        <v>37.56</v>
       </c>
       <c r="G49" t="n">
-        <v>-319.83</v>
+        <v>-334.33</v>
       </c>
       <c r="H49" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="50">
@@ -2403,13 +2542,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>40.04</v>
+        <v>36.4</v>
       </c>
       <c r="G50" t="n">
-        <v>-302.5</v>
+        <v>-316.2</v>
       </c>
       <c r="H50" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="51">
@@ -2429,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>38.6</v>
+        <v>35.09</v>
       </c>
       <c r="G51" t="n">
-        <v>-285.16</v>
+        <v>-298.08</v>
       </c>
       <c r="H51" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="52">
@@ -2455,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>37.03</v>
+        <v>33.66</v>
       </c>
       <c r="G52" t="n">
-        <v>-267.82</v>
+        <v>-279.96</v>
       </c>
       <c r="H52" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="53">
@@ -2481,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>35.33</v>
+        <v>32.12</v>
       </c>
       <c r="G53" t="n">
-        <v>-250.48</v>
+        <v>-261.83</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="54">
@@ -2507,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>33.52</v>
+        <v>30.47</v>
       </c>
       <c r="G54" t="n">
-        <v>-233.15</v>
+        <v>-243.71</v>
       </c>
       <c r="H54" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="55">
@@ -2533,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>31.6</v>
+        <v>28.73</v>
       </c>
       <c r="G55" t="n">
-        <v>-215.81</v>
+        <v>-225.59</v>
       </c>
       <c r="H55" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="56">
@@ -2559,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>29.59</v>
+        <v>26.9</v>
       </c>
       <c r="G56" t="n">
-        <v>-198.47</v>
+        <v>-207.46</v>
       </c>
       <c r="H56" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="57">
@@ -2585,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>27.48</v>
+        <v>24.99</v>
       </c>
       <c r="G57" t="n">
-        <v>-181.13</v>
+        <v>-189.34</v>
       </c>
       <c r="H57" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="58">
@@ -2611,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>25.3</v>
+        <v>23</v>
       </c>
       <c r="G58" t="n">
-        <v>-163.8</v>
+        <v>-171.22</v>
       </c>
       <c r="H58" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="59">
@@ -2637,7 +2776,7 @@
         <v>2310</v>
       </c>
       <c r="F59" t="n">
-        <v>11.52</v>
+        <v>10.47</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2709,7 +2848,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t36</t>
+          <t>Ring Gerade t0.378</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -2772,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>86.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2781,10 +2920,10 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>87.09999999999999</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="10">
@@ -2798,7 +2937,7 @@
         <v>10.2</v>
       </c>
       <c r="D10" t="n">
-        <v>82.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2807,10 +2946,10 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>82.7</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="11">
@@ -2824,7 +2963,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>76.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2833,10 +2972,10 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>77.2</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="12">
@@ -2850,19 +2989,19 @@
         <v>8.5</v>
       </c>
       <c r="D12" t="n">
-        <v>71.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>71.59999999999999</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="13">
@@ -2876,7 +3015,7 @@
         <v>7.6</v>
       </c>
       <c r="D13" t="n">
-        <v>64.90000000000001</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2885,10 +3024,10 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>65</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="14">
@@ -2902,19 +3041,19 @@
         <v>6.8</v>
       </c>
       <c r="D14" t="n">
-        <v>57.7</v>
+        <v>54.1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>58.3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2928,7 +3067,7 @@
         <v>5.9</v>
       </c>
       <c r="D15" t="n">
-        <v>49.1</v>
+        <v>45.9</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2954,7 +3093,7 @@
         <v>5.1</v>
       </c>
       <c r="D16" t="n">
-        <v>38.4</v>
+        <v>35.6</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -2980,7 +3119,7 @@
         <v>4.2</v>
       </c>
       <c r="D17" t="n">
-        <v>23.9</v>
+        <v>21.8</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3006,7 +3145,7 @@
         <v>3.4</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
@@ -3036,7 +3175,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A2:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="100" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anmerkungen zu Annahmen bei der Berechnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Normalspannungen werden als Mittelwert mit Hebelarm e = Radius_achse berechnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Verwende Furnierebenen Ansatz für die Schubspannungsberechnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Gestaffelte Spannglied Führung für Reibungsberechnung angesetzt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Erforderliche Spannkraft berechnet abzüglich des Eigengewichts mit gamma_m = 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Torsion konstant über die Höhe nur aus Kopflast</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Für den Bauzustand wird das Eigengewicht gamma_q = 1.0 berücksichtigt (Für Berechnung der Schiefstellung mit 1.35)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Schub Brutto Nachweis nur mit Schmalseitenverklebten Aufbauten (laut VO7)!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Für den Bauzustand wird die Windlast mit einem Abminderungsbeiwert von 0.5 berücksichtigt (DIN 1055)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,52 +3288,43 @@
     <col width="17" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
     <col width="17" customWidth="1" min="20" max="20"/>
+    <col width="17" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Querschnitt</t>
+          <t>γ_m</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>t [m]</t>
+          <t>kmod Ew. kurz</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nabenhöhe [m]</t>
+          <t>kmod Ew. ständig</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cd</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Volumen [m³]</t>
+          <t>ksys</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ring Gerade t36</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1.25</v>
       </c>
       <c r="B2" t="n">
-        <v>0.356</v>
+        <v>0.9</v>
       </c>
       <c r="C2" t="n">
-        <v>130</v>
+        <v>0.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1046.83</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -3138,7 +3353,8 @@
       <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="n"/>
-      <c r="T4" s="3" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3148,7 +3364,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t36</t>
+          <t>Ring Gerade t0.378</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
@@ -3168,7 +3384,8 @@
       <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="n"/>
-      <c r="T5" s="3" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3213,60 +3430,65 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
+          <t>σ_max [N/mm²]</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
           <t>σ_min [N/mm²]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>Ausn. druck</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>τ_Fe [N/mm²]</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>τ_längs [N/mm²]</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>Ausn. schub Furnier</t>
         </is>
       </c>
-      <c r="N6" s="1" t="inlineStr">
+      <c r="O6" s="1" t="inlineStr">
         <is>
           <t>Ausn. schub längs</t>
         </is>
       </c>
-      <c r="O6" s="1" t="inlineStr">
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t>nxy_Qy [kN/m]</t>
         </is>
       </c>
-      <c r="P6" s="1" t="inlineStr">
+      <c r="Q6" s="1" t="inlineStr">
         <is>
           <t>nxy_Mx [kNm/m]</t>
         </is>
       </c>
-      <c r="Q6" s="1" t="inlineStr">
+      <c r="R6" s="1" t="inlineStr">
         <is>
           <t>nxy_P,Rd [kN/m]</t>
         </is>
       </c>
-      <c r="R6" s="1" t="inlineStr">
+      <c r="S6" s="1" t="inlineStr">
         <is>
           <t>Ausn. reibung</t>
         </is>
       </c>
-      <c r="S6" s="1" t="inlineStr">
+      <c r="T6" s="1" t="inlineStr">
         <is>
           <t>fvd_Fe</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr">
+      <c r="U6" s="1" t="inlineStr">
         <is>
           <t>fvd_längs</t>
         </is>
@@ -3283,55 +3505,58 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>86.84999999999999</v>
+        <v>81.92</v>
       </c>
       <c r="E8" t="n">
-        <v>87.12</v>
+        <v>82.69</v>
       </c>
       <c r="F8" t="n">
-        <v>-206.94</v>
+        <v>-202.95</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.21</v>
+        <v>-10.51</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="I8" t="n">
-        <v>-14</v>
+        <v>-1.28</v>
       </c>
       <c r="J8" t="n">
-        <v>0.964</v>
+        <v>-12.57</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>0.852</v>
       </c>
       <c r="L8" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="M8" t="n">
-        <v>0.12</v>
+        <v>0.46</v>
       </c>
       <c r="N8" t="n">
-        <v>0.11</v>
+        <v>0.148</v>
       </c>
       <c r="O8" t="n">
-        <v>363.35</v>
+        <v>0.136</v>
       </c>
       <c r="P8" t="n">
+        <v>351.44</v>
+      </c>
+      <c r="Q8" t="n">
         <v>12.15</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1260.48</v>
-      </c>
       <c r="R8" t="n">
-        <v>0.298</v>
+        <v>1196.41</v>
       </c>
       <c r="S8" t="n">
-        <v>27.9</v>
+        <v>0.304</v>
       </c>
       <c r="T8" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="9">
@@ -3345,55 +3570,58 @@
         <v>10.62</v>
       </c>
       <c r="D9" t="n">
-        <v>86.84999999999999</v>
+        <v>81.92</v>
       </c>
       <c r="E9" t="n">
-        <v>87.12</v>
+        <v>82.69</v>
       </c>
       <c r="F9" t="n">
-        <v>-194.08</v>
+        <v>-190.51</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.720000000000001</v>
+        <v>-9.99</v>
       </c>
       <c r="H9" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="I9" t="n">
-        <v>-14.27</v>
+        <v>-1.44</v>
       </c>
       <c r="J9" t="n">
-        <v>0.985</v>
+        <v>-12.81</v>
       </c>
       <c r="K9" t="n">
-        <v>3.39</v>
+        <v>0.869</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>0.124</v>
+        <v>0.47</v>
       </c>
       <c r="N9" t="n">
-        <v>0.113</v>
+        <v>0.152</v>
       </c>
       <c r="O9" t="n">
-        <v>372.54</v>
+        <v>0.14</v>
       </c>
       <c r="P9" t="n">
+        <v>360.45</v>
+      </c>
+      <c r="Q9" t="n">
         <v>13.04</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1305.58</v>
-      </c>
       <c r="R9" t="n">
-        <v>0.295</v>
+        <v>1239.22</v>
       </c>
       <c r="S9" t="n">
-        <v>27.9</v>
+        <v>0.301</v>
       </c>
       <c r="T9" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="10">
@@ -3407,55 +3635,58 @@
         <v>10.24</v>
       </c>
       <c r="D10" t="n">
-        <v>86.84999999999999</v>
+        <v>81.92</v>
       </c>
       <c r="E10" t="n">
-        <v>87.12</v>
+        <v>82.69</v>
       </c>
       <c r="F10" t="n">
-        <v>-181.47</v>
+        <v>-178.3</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.24</v>
+        <v>-9.49</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="I10" t="n">
-        <v>-14.56</v>
+        <v>-1.62</v>
       </c>
       <c r="J10" t="n">
-        <v>1.006</v>
+        <v>-13.06</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>0.888</v>
       </c>
       <c r="L10" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="M10" t="n">
-        <v>0.126</v>
+        <v>0.48</v>
       </c>
       <c r="N10" t="n">
-        <v>0.116</v>
+        <v>0.155</v>
       </c>
       <c r="O10" t="n">
-        <v>378.77</v>
+        <v>0.142</v>
       </c>
       <c r="P10" t="n">
+        <v>366.82</v>
+      </c>
+      <c r="Q10" t="n">
         <v>14.02</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1354.03</v>
-      </c>
       <c r="R10" t="n">
-        <v>0.29</v>
+        <v>1285.21</v>
       </c>
       <c r="S10" t="n">
-        <v>27.9</v>
+        <v>0.296</v>
       </c>
       <c r="T10" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="11">
@@ -3469,55 +3700,58 @@
         <v>9.859999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>82.06999999999999</v>
+        <v>77.42</v>
       </c>
       <c r="E11" t="n">
-        <v>82.69</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>-169.15</v>
+        <v>-166.36</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.779999999999999</v>
+        <v>-9.02</v>
       </c>
       <c r="H11" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="I11" t="n">
-        <v>-14.47</v>
+        <v>-1.45</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999</v>
+        <v>-12.96</v>
       </c>
       <c r="K11" t="n">
-        <v>3.52</v>
+        <v>0.88</v>
       </c>
       <c r="L11" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="M11" t="n">
-        <v>0.128</v>
+        <v>0.49</v>
       </c>
       <c r="N11" t="n">
-        <v>0.118</v>
+        <v>0.158</v>
       </c>
       <c r="O11" t="n">
-        <v>384.52</v>
+        <v>0.145</v>
       </c>
       <c r="P11" t="n">
+        <v>372.82</v>
+      </c>
+      <c r="Q11" t="n">
         <v>15.13</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1334.74</v>
-      </c>
       <c r="R11" t="n">
-        <v>0.299</v>
+        <v>1263.27</v>
       </c>
       <c r="S11" t="n">
-        <v>27.9</v>
+        <v>0.307</v>
       </c>
       <c r="T11" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="12">
@@ -3531,55 +3765,58 @@
         <v>9.48</v>
       </c>
       <c r="D12" t="n">
-        <v>82.06999999999999</v>
+        <v>77.42</v>
       </c>
       <c r="E12" t="n">
-        <v>82.69</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>-157.13</v>
+        <v>-154.68</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.34</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I12" t="n">
-        <v>-14.78</v>
+        <v>-1.66</v>
       </c>
       <c r="J12" t="n">
-        <v>1.022</v>
+        <v>-13.23</v>
       </c>
       <c r="K12" t="n">
-        <v>3.59</v>
+        <v>0.9</v>
       </c>
       <c r="L12" t="n">
-        <v>0.42</v>
+        <v>4.25</v>
       </c>
       <c r="M12" t="n">
-        <v>0.131</v>
+        <v>0.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.12</v>
+        <v>0.162</v>
       </c>
       <c r="O12" t="n">
-        <v>390.25</v>
+        <v>0.148</v>
       </c>
       <c r="P12" t="n">
+        <v>378.85</v>
+      </c>
+      <c r="Q12" t="n">
         <v>16.36</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1388.24</v>
-      </c>
       <c r="R12" t="n">
-        <v>0.293</v>
+        <v>1313.9</v>
       </c>
       <c r="S12" t="n">
-        <v>27.9</v>
+        <v>0.301</v>
       </c>
       <c r="T12" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="13">
@@ -3593,55 +3830,58 @@
         <v>9.1</v>
       </c>
       <c r="D13" t="n">
-        <v>76.86</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>77.16</v>
+        <v>72.73</v>
       </c>
       <c r="F13" t="n">
-        <v>-145.41</v>
+        <v>-143.29</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.92</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I13" t="n">
-        <v>-14.59</v>
+        <v>-1.39</v>
       </c>
       <c r="J13" t="n">
-        <v>1.006</v>
+        <v>-13.03</v>
       </c>
       <c r="K13" t="n">
-        <v>3.66</v>
+        <v>0.883</v>
       </c>
       <c r="L13" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="M13" t="n">
-        <v>0.133</v>
+        <v>0.51</v>
       </c>
       <c r="N13" t="n">
-        <v>0.122</v>
+        <v>0.165</v>
       </c>
       <c r="O13" t="n">
-        <v>396.21</v>
+        <v>0.151</v>
       </c>
       <c r="P13" t="n">
+        <v>385.17</v>
+      </c>
+      <c r="Q13" t="n">
         <v>17.76</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1349.41</v>
-      </c>
       <c r="R13" t="n">
-        <v>0.307</v>
+        <v>1271.97</v>
       </c>
       <c r="S13" t="n">
-        <v>27.9</v>
+        <v>0.317</v>
       </c>
       <c r="T13" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="14">
@@ -3655,55 +3895,58 @@
         <v>8.720000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>76.86</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>77.16</v>
+        <v>72.73</v>
       </c>
       <c r="F14" t="n">
-        <v>-134</v>
+        <v>-132.18</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.51</v>
+        <v>-7.69</v>
       </c>
       <c r="H14" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="I14" t="n">
-        <v>-14.92</v>
+        <v>-1.63</v>
       </c>
       <c r="J14" t="n">
-        <v>1.032</v>
+        <v>-13.32</v>
       </c>
       <c r="K14" t="n">
-        <v>3.73</v>
+        <v>0.905</v>
       </c>
       <c r="L14" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="M14" t="n">
-        <v>0.136</v>
+        <v>0.52</v>
       </c>
       <c r="N14" t="n">
-        <v>0.125</v>
+        <v>0.168</v>
       </c>
       <c r="O14" t="n">
-        <v>402.59</v>
+        <v>0.154</v>
       </c>
       <c r="P14" t="n">
+        <v>391.96</v>
+      </c>
+      <c r="Q14" t="n">
         <v>19.34</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1408.21</v>
-      </c>
       <c r="R14" t="n">
-        <v>0.3</v>
+        <v>1327.4</v>
       </c>
       <c r="S14" t="n">
-        <v>27.9</v>
+        <v>0.31</v>
       </c>
       <c r="T14" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="15">
@@ -3717,55 +3960,58 @@
         <v>8.34</v>
       </c>
       <c r="D15" t="n">
-        <v>71.17</v>
+        <v>67.06</v>
       </c>
       <c r="E15" t="n">
-        <v>71.62</v>
+        <v>67.19</v>
       </c>
       <c r="F15" t="n">
-        <v>-122.9</v>
+        <v>-121.36</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.12</v>
+        <v>-7.28</v>
       </c>
       <c r="H15" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="I15" t="n">
-        <v>-14.7</v>
+        <v>-1.36</v>
       </c>
       <c r="J15" t="n">
-        <v>1.013</v>
+        <v>-13.09</v>
       </c>
       <c r="K15" t="n">
-        <v>3.82</v>
+        <v>0.887</v>
       </c>
       <c r="L15" t="n">
-        <v>0.45</v>
+        <v>4.55</v>
       </c>
       <c r="M15" t="n">
-        <v>0.139</v>
+        <v>0.54</v>
       </c>
       <c r="N15" t="n">
-        <v>0.127</v>
+        <v>0.172</v>
       </c>
       <c r="O15" t="n">
-        <v>409.57</v>
+        <v>0.158</v>
       </c>
       <c r="P15" t="n">
+        <v>399.39</v>
+      </c>
+      <c r="Q15" t="n">
         <v>21.14</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1366.75</v>
-      </c>
       <c r="R15" t="n">
-        <v>0.315</v>
+        <v>1282.25</v>
       </c>
       <c r="S15" t="n">
-        <v>27.9</v>
+        <v>0.328</v>
       </c>
       <c r="T15" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="16">
@@ -3779,55 +4025,58 @@
         <v>7.96</v>
       </c>
       <c r="D16" t="n">
-        <v>71.17</v>
+        <v>67.06</v>
       </c>
       <c r="E16" t="n">
-        <v>71.62</v>
+        <v>67.19</v>
       </c>
       <c r="F16" t="n">
-        <v>-112.1</v>
+        <v>-110.81</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.75</v>
+        <v>-6.89</v>
       </c>
       <c r="H16" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="I16" t="n">
-        <v>-15.06</v>
+        <v>-1.64</v>
       </c>
       <c r="J16" t="n">
-        <v>1.041</v>
+        <v>-13.39</v>
       </c>
       <c r="K16" t="n">
-        <v>3.91</v>
+        <v>0.91</v>
       </c>
       <c r="L16" t="n">
-        <v>0.46</v>
+        <v>4.67</v>
       </c>
       <c r="M16" t="n">
-        <v>0.142</v>
+        <v>0.55</v>
       </c>
       <c r="N16" t="n">
-        <v>0.13</v>
+        <v>0.177</v>
       </c>
       <c r="O16" t="n">
-        <v>417.34</v>
+        <v>0.162</v>
       </c>
       <c r="P16" t="n">
+        <v>407.64</v>
+      </c>
+      <c r="Q16" t="n">
         <v>23.21</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1432</v>
-      </c>
       <c r="R16" t="n">
-        <v>0.308</v>
+        <v>1343.46</v>
       </c>
       <c r="S16" t="n">
-        <v>27.9</v>
+        <v>0.321</v>
       </c>
       <c r="T16" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="17">
@@ -3841,55 +4090,58 @@
         <v>7.58</v>
       </c>
       <c r="D17" t="n">
-        <v>64.84999999999999</v>
+        <v>61.01</v>
       </c>
       <c r="E17" t="n">
-        <v>64.98</v>
+        <v>61.66</v>
       </c>
       <c r="F17" t="n">
-        <v>-101.61</v>
+        <v>-100.54</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.4</v>
+        <v>-6.52</v>
       </c>
       <c r="H17" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="I17" t="n">
-        <v>-14.68</v>
+        <v>-1.37</v>
       </c>
       <c r="J17" t="n">
-        <v>1.011</v>
+        <v>-13.13</v>
       </c>
       <c r="K17" t="n">
-        <v>4.02</v>
+        <v>0.889</v>
       </c>
       <c r="L17" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="M17" t="n">
-        <v>0.146</v>
+        <v>0.57</v>
       </c>
       <c r="N17" t="n">
-        <v>0.134</v>
+        <v>0.182</v>
       </c>
       <c r="O17" t="n">
-        <v>426.09</v>
+        <v>0.167</v>
       </c>
       <c r="P17" t="n">
+        <v>416.91</v>
+      </c>
+      <c r="Q17" t="n">
         <v>25.59</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1364.33</v>
-      </c>
       <c r="R17" t="n">
-        <v>0.331</v>
+        <v>1294.6</v>
       </c>
       <c r="S17" t="n">
-        <v>27.9</v>
+        <v>0.342</v>
       </c>
       <c r="T17" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="18">
@@ -3903,55 +4155,58 @@
         <v>7.2</v>
       </c>
       <c r="D18" t="n">
-        <v>64.84999999999999</v>
+        <v>61.01</v>
       </c>
       <c r="E18" t="n">
-        <v>64.98</v>
+        <v>61.66</v>
       </c>
       <c r="F18" t="n">
-        <v>-91.40000000000001</v>
+        <v>-90.54000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.06</v>
+        <v>-6.17</v>
       </c>
       <c r="H18" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="I18" t="n">
-        <v>-15.04</v>
+        <v>-1.71</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>-13.44</v>
       </c>
       <c r="K18" t="n">
-        <v>4.14</v>
+        <v>0.914</v>
       </c>
       <c r="L18" t="n">
-        <v>0.49</v>
+        <v>4.96</v>
       </c>
       <c r="M18" t="n">
-        <v>0.151</v>
+        <v>0.59</v>
       </c>
       <c r="N18" t="n">
-        <v>0.138</v>
+        <v>0.188</v>
       </c>
       <c r="O18" t="n">
-        <v>436.05</v>
+        <v>0.172</v>
       </c>
       <c r="P18" t="n">
+        <v>427.42</v>
+      </c>
+      <c r="Q18" t="n">
         <v>28.37</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1436.33</v>
-      </c>
       <c r="R18" t="n">
-        <v>0.323</v>
+        <v>1362.92</v>
       </c>
       <c r="S18" t="n">
-        <v>27.9</v>
+        <v>0.334</v>
       </c>
       <c r="T18" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="19">
@@ -3965,55 +4220,58 @@
         <v>6.82</v>
       </c>
       <c r="D19" t="n">
-        <v>64.84999999999999</v>
+        <v>61.01</v>
       </c>
       <c r="E19" t="n">
-        <v>64.98</v>
+        <v>61.66</v>
       </c>
       <c r="F19" t="n">
-        <v>-81.48</v>
+        <v>-80.8</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.74</v>
+        <v>-5.83</v>
       </c>
       <c r="H19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="I19" t="n">
-        <v>-15.42</v>
+        <v>-2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.071</v>
+        <v>-13.77</v>
       </c>
       <c r="K19" t="n">
-        <v>4.29</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="M19" t="n">
-        <v>0.156</v>
+        <v>0.61</v>
       </c>
       <c r="N19" t="n">
-        <v>0.143</v>
+        <v>0.195</v>
       </c>
       <c r="O19" t="n">
-        <v>447.48</v>
+        <v>0.178</v>
       </c>
       <c r="P19" t="n">
+        <v>439.44</v>
+      </c>
+      <c r="Q19" t="n">
         <v>31.62</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1516.36</v>
-      </c>
       <c r="R19" t="n">
-        <v>0.316</v>
+        <v>1438.86</v>
       </c>
       <c r="S19" t="n">
-        <v>27.9</v>
+        <v>0.327</v>
       </c>
       <c r="T19" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="20">
@@ -4027,55 +4285,58 @@
         <v>6.44</v>
       </c>
       <c r="D20" t="n">
-        <v>57.66</v>
+        <v>54.09</v>
       </c>
       <c r="E20" t="n">
-        <v>58.34</v>
+        <v>55.02</v>
       </c>
       <c r="F20" t="n">
-        <v>-71.84</v>
+        <v>-71.31</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.44</v>
+        <v>-5.52</v>
       </c>
       <c r="H20" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="I20" t="n">
-        <v>-14.95</v>
+        <v>-1.74</v>
       </c>
       <c r="J20" t="n">
-        <v>1.034</v>
+        <v>-13.29</v>
       </c>
       <c r="K20" t="n">
-        <v>4.45</v>
+        <v>0.904</v>
       </c>
       <c r="L20" t="n">
-        <v>0.53</v>
+        <v>5.35</v>
       </c>
       <c r="M20" t="n">
-        <v>0.162</v>
+        <v>0.63</v>
       </c>
       <c r="N20" t="n">
-        <v>0.148</v>
+        <v>0.202</v>
       </c>
       <c r="O20" t="n">
-        <v>460.7</v>
+        <v>0.185</v>
       </c>
       <c r="P20" t="n">
+        <v>453.28</v>
+      </c>
+      <c r="Q20" t="n">
         <v>35.46</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1441.69</v>
-      </c>
       <c r="R20" t="n">
-        <v>0.344</v>
+        <v>1359.62</v>
       </c>
       <c r="S20" t="n">
-        <v>27.9</v>
+        <v>0.359</v>
       </c>
       <c r="T20" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="21">
@@ -4089,55 +4350,58 @@
         <v>6.06</v>
       </c>
       <c r="D21" t="n">
-        <v>57.66</v>
+        <v>54.09</v>
       </c>
       <c r="E21" t="n">
-        <v>58.34</v>
+        <v>55.02</v>
       </c>
       <c r="F21" t="n">
-        <v>-62.47</v>
+        <v>-62.07</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.15</v>
+        <v>-5.22</v>
       </c>
       <c r="H21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="I21" t="n">
-        <v>-15.31</v>
+        <v>-2.25</v>
       </c>
       <c r="J21" t="n">
-        <v>1.065</v>
+        <v>-13.59</v>
       </c>
       <c r="K21" t="n">
-        <v>4.65</v>
+        <v>0.931</v>
       </c>
       <c r="L21" t="n">
-        <v>0.55</v>
+        <v>5.59</v>
       </c>
       <c r="M21" t="n">
-        <v>0.169</v>
+        <v>0.66</v>
       </c>
       <c r="N21" t="n">
-        <v>0.154</v>
+        <v>0.211</v>
       </c>
       <c r="O21" t="n">
-        <v>476.1</v>
+        <v>0.194</v>
       </c>
       <c r="P21" t="n">
+        <v>469.34</v>
+      </c>
+      <c r="Q21" t="n">
         <v>40.04</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1532.09</v>
-      </c>
       <c r="R21" t="n">
-        <v>0.337</v>
+        <v>1444.87</v>
       </c>
       <c r="S21" t="n">
-        <v>27.9</v>
+        <v>0.353</v>
       </c>
       <c r="T21" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="22">
@@ -4151,55 +4415,58 @@
         <v>5.68</v>
       </c>
       <c r="D22" t="n">
-        <v>49.14</v>
+        <v>45.86</v>
       </c>
       <c r="E22" t="n">
         <v>49.48</v>
       </c>
       <c r="F22" t="n">
-        <v>-53.34</v>
+        <v>-53.06</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.88</v>
+        <v>-4.94</v>
       </c>
       <c r="H22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I22" t="n">
-        <v>-14.36</v>
+        <v>-2.09</v>
       </c>
       <c r="J22" t="n">
-        <v>0.993</v>
+        <v>-13.13</v>
       </c>
       <c r="K22" t="n">
-        <v>4.88</v>
+        <v>0.898</v>
       </c>
       <c r="L22" t="n">
-        <v>0.58</v>
+        <v>5.88</v>
       </c>
       <c r="M22" t="n">
-        <v>0.177</v>
+        <v>0.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.162</v>
+        <v>0.222</v>
       </c>
       <c r="O22" t="n">
-        <v>494.16</v>
+        <v>0.204</v>
       </c>
       <c r="P22" t="n">
+        <v>488.09</v>
+      </c>
+      <c r="Q22" t="n">
         <v>45.58</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>1386.45</v>
       </c>
-      <c r="R22" t="n">
-        <v>0.389</v>
-      </c>
       <c r="S22" t="n">
-        <v>27.9</v>
+        <v>0.385</v>
       </c>
       <c r="T22" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="23">
@@ -4213,55 +4480,58 @@
         <v>5.3</v>
       </c>
       <c r="D23" t="n">
-        <v>49.14</v>
+        <v>45.86</v>
       </c>
       <c r="E23" t="n">
         <v>49.48</v>
       </c>
       <c r="F23" t="n">
-        <v>-44.46</v>
+        <v>-44.27</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.63</v>
+        <v>-4.68</v>
       </c>
       <c r="H23" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="I23" t="n">
-        <v>-14.62</v>
+        <v>-2.8</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>-13.36</v>
       </c>
       <c r="K23" t="n">
-        <v>5.15</v>
+        <v>0.923</v>
       </c>
       <c r="L23" t="n">
-        <v>0.61</v>
+        <v>6.22</v>
       </c>
       <c r="M23" t="n">
-        <v>0.187</v>
+        <v>0.74</v>
       </c>
       <c r="N23" t="n">
-        <v>0.171</v>
+        <v>0.235</v>
       </c>
       <c r="O23" t="n">
-        <v>515.5</v>
+        <v>0.215</v>
       </c>
       <c r="P23" t="n">
+        <v>510.18</v>
+      </c>
+      <c r="Q23" t="n">
         <v>52.35</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>1485.85</v>
       </c>
-      <c r="R23" t="n">
-        <v>0.382</v>
-      </c>
       <c r="S23" t="n">
-        <v>27.9</v>
+        <v>0.379</v>
       </c>
       <c r="T23" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="24">
@@ -4275,55 +4545,58 @@
         <v>4.92</v>
       </c>
       <c r="D24" t="n">
-        <v>38.42</v>
+        <v>35.56</v>
       </c>
       <c r="E24" t="n">
         <v>49.48</v>
       </c>
       <c r="F24" t="n">
-        <v>-35.81</v>
+        <v>-35.69</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.4</v>
+        <v>-4.43</v>
       </c>
       <c r="H24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I24" t="n">
-        <v>-14.83</v>
+        <v>-3.69</v>
       </c>
       <c r="J24" t="n">
-        <v>1.047</v>
+        <v>-13.56</v>
       </c>
       <c r="K24" t="n">
-        <v>5.48</v>
+        <v>0.947</v>
       </c>
       <c r="L24" t="n">
-        <v>0.65</v>
+        <v>6.64</v>
       </c>
       <c r="M24" t="n">
-        <v>0.199</v>
+        <v>0.78</v>
       </c>
       <c r="N24" t="n">
-        <v>0.182</v>
+        <v>0.251</v>
       </c>
       <c r="O24" t="n">
-        <v>540.9299999999999</v>
+        <v>0.23</v>
       </c>
       <c r="P24" t="n">
+        <v>536.4</v>
+      </c>
+      <c r="Q24" t="n">
         <v>60.75</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>1600.61</v>
       </c>
-      <c r="R24" t="n">
-        <v>0.376</v>
-      </c>
       <c r="S24" t="n">
-        <v>27.9</v>
+        <v>0.373</v>
       </c>
       <c r="T24" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="25">
@@ -4337,55 +4610,58 @@
         <v>4.54</v>
       </c>
       <c r="D25" t="n">
-        <v>38.42</v>
+        <v>35.56</v>
       </c>
       <c r="E25" t="n">
         <v>49.48</v>
       </c>
       <c r="F25" t="n">
-        <v>-27.38</v>
+        <v>-27.32</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.18</v>
+        <v>-4.21</v>
       </c>
       <c r="H25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I25" t="n">
-        <v>-14.95</v>
+        <v>-4.82</v>
       </c>
       <c r="J25" t="n">
-        <v>1.071</v>
+        <v>-13.69</v>
       </c>
       <c r="K25" t="n">
-        <v>5.89</v>
+        <v>0.97</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7</v>
+        <v>7.14</v>
       </c>
       <c r="M25" t="n">
-        <v>0.213</v>
+        <v>0.84</v>
       </c>
       <c r="N25" t="n">
-        <v>0.196</v>
+        <v>0.27</v>
       </c>
       <c r="O25" t="n">
-        <v>571.52</v>
+        <v>0.247</v>
       </c>
       <c r="P25" t="n">
+        <v>567.85</v>
+      </c>
+      <c r="Q25" t="n">
         <v>71.34999999999999</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>1734.59</v>
       </c>
-      <c r="R25" t="n">
-        <v>0.371</v>
-      </c>
       <c r="S25" t="n">
-        <v>27.9</v>
+        <v>0.369</v>
       </c>
       <c r="T25" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="26">
@@ -4399,55 +4675,58 @@
         <v>4.16</v>
       </c>
       <c r="D26" t="n">
-        <v>23.89</v>
+        <v>21.76</v>
       </c>
       <c r="E26" t="n">
         <v>49.48</v>
       </c>
       <c r="F26" t="n">
-        <v>-19.15</v>
+        <v>-19.12</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.98</v>
+        <v>-4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I26" t="n">
-        <v>-14.92</v>
+        <v>-6.3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.09</v>
+        <v>-13.68</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>0.988</v>
       </c>
       <c r="L26" t="n">
-        <v>0.76</v>
+        <v>7.77</v>
       </c>
       <c r="M26" t="n">
-        <v>0.232</v>
+        <v>0.92</v>
       </c>
       <c r="N26" t="n">
-        <v>0.212</v>
+        <v>0.293</v>
       </c>
       <c r="O26" t="n">
-        <v>608.74</v>
+        <v>0.268</v>
       </c>
       <c r="P26" t="n">
+        <v>605.99</v>
+      </c>
+      <c r="Q26" t="n">
         <v>84.98</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>1893.03</v>
       </c>
-      <c r="R26" t="n">
-        <v>0.366</v>
-      </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>0.365</v>
       </c>
       <c r="T26" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U26" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="27">
@@ -4461,55 +4740,58 @@
         <v>3.78</v>
       </c>
       <c r="D27" t="n">
-        <v>23.89</v>
+        <v>21.76</v>
       </c>
       <c r="E27" t="n">
         <v>49.48</v>
       </c>
       <c r="F27" t="n">
-        <v>-11.11</v>
+        <v>-11.1</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.8</v>
+        <v>-3.81</v>
       </c>
       <c r="H27" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="I27" t="n">
-        <v>-14.61</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>1.098</v>
+        <v>-13.46</v>
       </c>
       <c r="K27" t="n">
-        <v>7.03</v>
+        <v>0.999</v>
       </c>
       <c r="L27" t="n">
-        <v>0.83</v>
+        <v>8.56</v>
       </c>
       <c r="M27" t="n">
-        <v>0.255</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0.233</v>
+        <v>0.323</v>
       </c>
       <c r="O27" t="n">
-        <v>654.63</v>
+        <v>0.295</v>
       </c>
       <c r="P27" t="n">
+        <v>652.89</v>
+      </c>
+      <c r="Q27" t="n">
         <v>102.92</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>2083.34</v>
       </c>
-      <c r="R27" t="n">
-        <v>0.364</v>
-      </c>
       <c r="S27" t="n">
-        <v>27.9</v>
+        <v>0.363</v>
       </c>
       <c r="T27" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3.456</v>
       </c>
     </row>
     <row r="28">
@@ -4523,7 +4805,7 @@
         <v>3.4</v>
       </c>
       <c r="D28" t="n">
-        <v>23.89</v>
+        <v>21.76</v>
       </c>
       <c r="E28" t="n">
         <v>49.48</v>
@@ -4538,57 +4820,51 @@
         <v>1.21</v>
       </c>
       <c r="I28" t="n">
-        <v>-13.83</v>
+        <v>-11</v>
       </c>
       <c r="J28" t="n">
-        <v>1.085</v>
+        <v>-12.86</v>
       </c>
       <c r="K28" t="n">
-        <v>7.86</v>
+        <v>0.994</v>
       </c>
       <c r="L28" t="n">
-        <v>0.93</v>
+        <v>9.57</v>
       </c>
       <c r="M28" t="n">
-        <v>0.284</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>0.26</v>
+        <v>0.361</v>
       </c>
       <c r="O28" t="n">
-        <v>712.14</v>
+        <v>0.33</v>
       </c>
       <c r="P28" t="n">
+        <v>711.52</v>
+      </c>
+      <c r="Q28" t="n">
         <v>127.21</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>2316.18</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.362</v>
       </c>
-      <c r="S28" t="n">
-        <v>27.9</v>
-      </c>
       <c r="T28" t="n">
-        <v>3.6</v>
+        <v>26.784</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3.456</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="B4:U4"/>
+    <mergeCell ref="B5:U5"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J28">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M28">
+  <conditionalFormatting sqref="K3:K28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4606,7 +4882,16 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R28">
+  <conditionalFormatting sqref="O3:O28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00FF0000"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4619,13 +4904,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4637,17 +4922,10 @@
     <col width="20" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>t, tX, tY [cm] 36, 32.0, 3.6</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ring Gerade t36</t>
+          <t>Ring Gerade t0.378</t>
         </is>
       </c>
     </row>
@@ -4658,13 +4936,2712 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.097742484745861</v>
+        <v>0.9990681503763088</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BL15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
+    <col width="15" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="41" max="41"/>
+    <col width="15" customWidth="1" min="42" max="42"/>
+    <col width="15" customWidth="1" min="43" max="43"/>
+    <col width="15" customWidth="1" min="44" max="44"/>
+    <col width="15" customWidth="1" min="45" max="45"/>
+    <col width="15" customWidth="1" min="46" max="46"/>
+    <col width="15" customWidth="1" min="47" max="47"/>
+    <col width="15" customWidth="1" min="48" max="48"/>
+    <col width="15" customWidth="1" min="49" max="49"/>
+    <col width="15" customWidth="1" min="50" max="50"/>
+    <col width="15" customWidth="1" min="51" max="51"/>
+    <col width="15" customWidth="1" min="52" max="52"/>
+    <col width="15" customWidth="1" min="53" max="53"/>
+    <col width="15" customWidth="1" min="54" max="54"/>
+    <col width="15" customWidth="1" min="55" max="55"/>
+    <col width="15" customWidth="1" min="56" max="56"/>
+    <col width="15" customWidth="1" min="57" max="57"/>
+    <col width="15" customWidth="1" min="58" max="58"/>
+    <col width="15" customWidth="1" min="59" max="59"/>
+    <col width="15" customWidth="1" min="60" max="60"/>
+    <col width="15" customWidth="1" min="61" max="61"/>
+    <col width="15" customWidth="1" min="62" max="62"/>
+    <col width="15" customWidth="1" min="63" max="63"/>
+    <col width="15" customWidth="1" min="64" max="64"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nabenhöhe</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+      <c r="BA1" s="2" t="n"/>
+      <c r="BB1" s="2" t="n"/>
+      <c r="BC1" s="2" t="n"/>
+      <c r="BD1" s="2" t="n"/>
+      <c r="BE1" s="2" t="n"/>
+      <c r="BF1" s="2" t="n"/>
+      <c r="BG1" s="2" t="n"/>
+      <c r="BH1" s="2" t="n"/>
+      <c r="BI1" s="2" t="n"/>
+      <c r="BJ1" s="2" t="n"/>
+      <c r="BK1" s="2" t="n"/>
+      <c r="BL1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Querschnitt</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Ring Gerade t0.378</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="2" t="n"/>
+      <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="2" t="n"/>
+      <c r="AA2" s="2" t="n"/>
+      <c r="AB2" s="2" t="n"/>
+      <c r="AC2" s="2" t="n"/>
+      <c r="AD2" s="2" t="n"/>
+      <c r="AE2" s="2" t="n"/>
+      <c r="AF2" s="2" t="n"/>
+      <c r="AG2" s="2" t="n"/>
+      <c r="AH2" s="2" t="n"/>
+      <c r="AI2" s="2" t="n"/>
+      <c r="AJ2" s="2" t="n"/>
+      <c r="AK2" s="2" t="n"/>
+      <c r="AL2" s="2" t="n"/>
+      <c r="AM2" s="2" t="n"/>
+      <c r="AN2" s="2" t="n"/>
+      <c r="AO2" s="2" t="n"/>
+      <c r="AP2" s="2" t="n"/>
+      <c r="AQ2" s="2" t="n"/>
+      <c r="AR2" s="2" t="n"/>
+      <c r="AS2" s="2" t="n"/>
+      <c r="AT2" s="2" t="n"/>
+      <c r="AU2" s="2" t="n"/>
+      <c r="AV2" s="2" t="n"/>
+      <c r="AW2" s="2" t="n"/>
+      <c r="AX2" s="2" t="n"/>
+      <c r="AY2" s="2" t="n"/>
+      <c r="AZ2" s="2" t="n"/>
+      <c r="BA2" s="2" t="n"/>
+      <c r="BB2" s="2" t="n"/>
+      <c r="BC2" s="2" t="n"/>
+      <c r="BD2" s="2" t="n"/>
+      <c r="BE2" s="2" t="n"/>
+      <c r="BF2" s="2" t="n"/>
+      <c r="BG2" s="2" t="n"/>
+      <c r="BH2" s="2" t="n"/>
+      <c r="BI2" s="2" t="n"/>
+      <c r="BJ2" s="2" t="n"/>
+      <c r="BK2" s="2" t="n"/>
+      <c r="BL2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-1</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-2</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-3</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-4</t>
+        </is>
+      </c>
+      <c r="X3" s="2" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+      <c r="AA3" s="2" t="n"/>
+      <c r="AB3" s="2" t="n"/>
+      <c r="AC3" s="3" t="n"/>
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-5</t>
+        </is>
+      </c>
+      <c r="AE3" s="2" t="n"/>
+      <c r="AF3" s="2" t="n"/>
+      <c r="AG3" s="2" t="n"/>
+      <c r="AH3" s="2" t="n"/>
+      <c r="AI3" s="2" t="n"/>
+      <c r="AJ3" s="3" t="n"/>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-6</t>
+        </is>
+      </c>
+      <c r="AL3" s="2" t="n"/>
+      <c r="AM3" s="2" t="n"/>
+      <c r="AN3" s="2" t="n"/>
+      <c r="AO3" s="2" t="n"/>
+      <c r="AP3" s="2" t="n"/>
+      <c r="AQ3" s="3" t="n"/>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-7</t>
+        </is>
+      </c>
+      <c r="AS3" s="2" t="n"/>
+      <c r="AT3" s="2" t="n"/>
+      <c r="AU3" s="2" t="n"/>
+      <c r="AV3" s="2" t="n"/>
+      <c r="AW3" s="2" t="n"/>
+      <c r="AX3" s="3" t="n"/>
+      <c r="AY3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-8</t>
+        </is>
+      </c>
+      <c r="AZ3" s="2" t="n"/>
+      <c r="BA3" s="2" t="n"/>
+      <c r="BB3" s="2" t="n"/>
+      <c r="BC3" s="2" t="n"/>
+      <c r="BD3" s="2" t="n"/>
+      <c r="BE3" s="3" t="n"/>
+      <c r="BF3" s="1" t="inlineStr">
+        <is>
+          <t>seg_0-9</t>
+        </is>
+      </c>
+      <c r="BG3" s="2" t="n"/>
+      <c r="BH3" s="2" t="n"/>
+      <c r="BI3" s="2" t="n"/>
+      <c r="BJ3" s="2" t="n"/>
+      <c r="BK3" s="2" t="n"/>
+      <c r="BL3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Komponente</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="V4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+      <c r="W4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="X4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="Y4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="AA4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+      <c r="AD4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="AE4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="AF4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="AG4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="AH4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="AM4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="AN4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="AO4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="AP4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="AQ4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+      <c r="AR4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="AS4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="AT4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="AU4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="AV4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="AW4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="AX4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+      <c r="AY4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="AZ4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="BA4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="BB4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="BC4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="BD4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="BE4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+      <c r="BF4" s="1" t="inlineStr">
+        <is>
+          <t>M [MNm]</t>
+        </is>
+      </c>
+      <c r="BG4" s="1" t="inlineStr">
+        <is>
+          <t>N [MN]</t>
+        </is>
+      </c>
+      <c r="BH4" s="1" t="inlineStr">
+        <is>
+          <t>Q [MN]</t>
+        </is>
+      </c>
+      <c r="BI4" s="1" t="inlineStr">
+        <is>
+          <t>Reibung [MN]</t>
+        </is>
+      </c>
+      <c r="BJ4" s="1" t="inlineStr">
+        <is>
+          <t>Ausn. reibung</t>
+        </is>
+      </c>
+      <c r="BK4" s="1" t="inlineStr">
+        <is>
+          <t>nz_max [kN/m]</t>
+        </is>
+      </c>
+      <c r="BL4" s="1" t="inlineStr">
+        <is>
+          <t>nz_min [kN/m]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-30.26</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-27.68</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-64.59999999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-3.47</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-29.89</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-102.79</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-25.19</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-144.03</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-8.210000000000001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-3.49</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-14.67</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-187.26</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-11.01</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-231.17</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-13.93</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-4.42</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-274.29</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-16.79</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-4.79</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>-314.98</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-17.93</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-335.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-16.04</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-31.86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-23.4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-68.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-22.68</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-108.55</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-5.55</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-14.96</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-151.71</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-196.31</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-240.75</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-12.91</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>-283.21</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-13.93</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-305.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-14.43</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-33.28</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-19.27</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-71.62</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-3.35</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-15.59</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-113.95</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-4.85</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-158.8</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-7.35</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-204.36</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-9.51</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-248.58</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-10.41</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-3.49</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-271.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-12.75</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-34.74</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-14.93</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-75.06</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-119.36</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-165.62</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-211.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>-7.41</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-2.79</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>-236.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-36.33</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-78.73</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-124.91</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-172.14</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-198.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-8.73</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-38.14</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>-4.74</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>-82.77</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>-130.63</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>-159.42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-6.15</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>-40.27</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>-87.26000000000001</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>-118.15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>-42.86</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>-7.59</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>-75.78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>-10.72</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>-34.29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:BL1"/>
+    <mergeCell ref="B2:BL2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
   </mergeCells>
+  <conditionalFormatting sqref="G5:G15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB5:AB15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI5:AI15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP5:AP15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW5:AW15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD5:BD15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK5:BK15">
+    <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AH15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO5:AO15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV5:AV15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC5:BC15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ5:BJ15">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/3DBeam/output/Berechnungs_Ergebnisse.xlsx
+++ b/3DBeam/output/Berechnungs_Ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Projekte\Projekte 2022\(E) Entwicklung\22-E-001 - Studie Windraeder\CoupledBeams\3DBeam\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7CD8F5-8AB8-422F-9E48-20AA7B58DF9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE787C4B-1F46-4372-A957-54CAF0E80768}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,49 +126,58 @@
     <t>s &lt;3</t>
   </si>
   <si>
-    <t>n Segmente max</t>
+    <t>n Seg. max</t>
   </si>
   <si>
     <t>s &gt;3</t>
   </si>
   <si>
+    <t>n Seg. min</t>
+  </si>
+  <si>
     <t>ortho</t>
   </si>
   <si>
-    <t>ti m</t>
-  </si>
-  <si>
-    <t>di m</t>
+    <t>ti [m]</t>
+  </si>
+  <si>
+    <t>di [m]</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>[10.871 10.491 10.111  9.731  9.351  8.971  8.591  8.211  7.831  7.451
-  7.071  6.691  6.311  5.931  5.551  5.171  4.791  4.411  4.031  3.651
-  3.271]</t>
+    <t>[10.871      10.49088304 10.11076608  9.7308539   9.351       8.971
+  8.59088304  8.2108539   7.831       7.45111696  7.071       6.69088304
+  6.311       5.9311461   5.55111696  5.171       4.791       4.4111461
+  4.03123392  3.65111696  3.271     ]</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>[10.9355 10.5555 10.1755  9.7955  9.4155  9.0355  8.6555  8.2755  7.8955
-  7.5155  7.1355  6.7555  6.3755  5.9955  5.6155  5.2355  4.8555  4.4755
-  4.0955  3.7155  3.3355]</t>
-  </si>
-  <si>
-    <t>[11.   10.62 10.24  9.86  9.48  9.1   8.72  8.34  7.96  7.58  7.2   6.82
-  6.44  6.06  5.68  5.3   4.92  4.54  4.16  3.78  3.4 ]</t>
-  </si>
-  <si>
-    <t>[11.0645 10.6845 10.3045  9.9245  9.5445  9.1645  8.7845  8.4045  8.0245
-  7.6445  7.2645  6.8845  6.5045  6.1245  5.7445  5.3645  4.9845  4.6045
-  4.2245  3.8445  3.4645]</t>
-  </si>
-  <si>
-    <t>[11.129 10.749 10.369  9.989  9.609  9.229  8.849  8.469  8.089  7.709
-  7.329  6.949  6.569  6.189  5.809  5.429  5.049  4.669  4.289  3.909
-  3.529]</t>
+    <t>[10.9355     10.55538304 10.17526608  9.7953539   9.4155      9.0355
+  8.65538304  8.2753539   7.8955      7.51561696  7.1355      6.75538304
+  6.3755      5.9956461   5.61561696  5.2355      4.8555      4.4756461
+  4.09573392  3.71561696  3.3355    ]</t>
+  </si>
+  <si>
+    <t>[11.         10.61988304 10.23976608  9.8598539   9.48        9.1
+  8.71988304  8.3398539   7.96        7.58011696  7.2         6.81988304
+  6.44        6.0601461   5.68011696  5.3         4.92        4.5401461
+  4.16023392  3.78011696  3.4       ]</t>
+  </si>
+  <si>
+    <t>[11.0645     10.68438304 10.30426608  9.9243539   9.5445      9.1645
+  8.78438304  8.4043539   8.0245      7.64461696  7.2645      6.88438304
+  6.5045      6.1246461   5.74461696  5.3645      4.9845      4.6046461
+  4.22473392  3.84461696  3.4645    ]</t>
+  </si>
+  <si>
+    <t>[11.129      10.74888304 10.36876608  9.9888539   9.609       9.229
+  8.84888304  8.4688539   8.089       7.70911696  7.329       6.94888304
+  6.569       6.1891461   5.80911696  5.429       5.049       4.6691461
+  4.28923392  3.90911696  3.529     ]</t>
   </si>
   <si>
     <t>vb</t>
@@ -279,33 +288,33 @@
     <t>Anmerkungen zu Annahmen bei der Berechnung</t>
   </si>
   <si>
+    <t xml:space="preserve">   - Gestaffelte Spannglied Führung für Reibungsberechnung angesetzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Schub Brutto Nachweis nur mit Schmalseitenverklebten Aufbauten (laut VO7)!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Erforderliche Spannkraft berechnet abzüglich des Eigengewichts mit gamma_m = 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Torsion konstant über die Höhe nur aus Kopflast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Für den Bauzustand wird die Windlast mit einem Abminderungsbeiwert von 0.5 berücksichtigt (DIN 1055)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Verwende Furnierebenen Ansatz für die Schubspannungsberechnung</t>
+  </si>
+  <si>
     <t xml:space="preserve">   - Einspannung am Fuß mit Federsteifigkeiten u &amp; Drehfder gamma: [10000000000000.0, 20000000000000.0]</t>
   </si>
   <si>
-    <t xml:space="preserve">   - Gestaffelte Spannglied Führung für Reibungsberechnung angesetzt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Erforderliche Spannkraft berechnet abzüglich des Eigengewichts mit gamma_m = 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Torsion konstant über die Höhe nur aus Kopflast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Verwende Furnierebenen Ansatz für die Schubspannungsberechnung</t>
+    <t xml:space="preserve">   - Für den Bauzustand wird das Eigengewicht gamma_q = 1.0 berücksichtigt (Für Berechnung der Schiefstellung mit 1.35)</t>
   </si>
   <si>
     <t xml:space="preserve">   - Normalspannungen werden als Mittelwert mit Hebelarm e = Radius_achse berechnet</t>
   </si>
   <si>
-    <t xml:space="preserve">   - Schub Brutto Nachweis nur mit Schmalseitenverklebten Aufbauten (laut VO7)!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Für den Bauzustand wird die Windlast mit einem Abminderungsbeiwert von 0.5 berücksichtigt (DIN 1055)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Für den Bauzustand wird das Eigengewicht gamma_q = 1.0 berücksichtigt (Für Berechnung der Schiefstellung mit 1.35)</t>
-  </si>
-  <si>
     <t>γ_m</t>
   </si>
   <si>
@@ -406,19 +415,13 @@
   </si>
   <si>
     <t>nz_min [kN/m]</t>
-  </si>
-  <si>
-    <t>n Segmente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,15 +433,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -449,7 +443,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -496,27 +490,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -972,18 +954,12 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="19" width="13" customWidth="1"/>
+    <col min="1" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1100,22 +1076,22 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1159,97 +1135,101 @@
         <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>11.38</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>197.81</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>13.06</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>34.56</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>35.75</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>0.38</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>181.44</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>3.04</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>2.94</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>12</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>3.21</v>
       </c>
       <c r="O8">
         <v>11</v>
+      </c>
+      <c r="P8">
+        <f>E8*K2</f>
+        <v>2373720000000</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>14.44</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>10.16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>10.53</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>155.69</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>12.06</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>31.9</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>33.090000000000003</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>0.38</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>166.96</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>3.04</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>2.97</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>11</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>3.26</v>
       </c>
       <c r="O9">
@@ -1260,43 +1240,43 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>28.89</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>9.31</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>9.69</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>120.02</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>11.06</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>29.25</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>30.44</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>0.38</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>152.47</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>3.05</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>2.99</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>3.31</v>
       </c>
       <c r="O10">
@@ -1307,43 +1287,43 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>43.33</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>8.4700000000000006</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>8.84</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>90.27</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>10.050000000000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>26.6</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>27.79</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>0.38</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>137.99</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>3.06</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>2.73</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>3.03</v>
       </c>
       <c r="O11">
@@ -1354,43 +1334,43 @@
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>57.78</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>7.62</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>65.900000000000006</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>9.0500000000000007</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>23.95</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>25.13</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>0.38</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>123.5</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>3.08</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>2.74</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12">
         <v>9</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>3.06</v>
       </c>
       <c r="O12">
@@ -1401,43 +1381,43 @@
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>72.22</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>6.78</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>7.16</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>46.36</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>8.0500000000000007</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>21.29</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>22.48</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>0.38</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>109.02</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>3.1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>2.74</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>3.1</v>
       </c>
       <c r="O13">
@@ -1448,43 +1428,43 @@
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>86.67</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>5.93</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>6.31</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>31.13</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>7.05</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>18.64</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>19.829999999999998</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>0.38</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>94.53</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>3.13</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>2.74</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
         <v>7</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14">
         <v>3.16</v>
       </c>
       <c r="O14">
@@ -1495,43 +1475,43 @@
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>101.11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>5.09</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>5.47</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>19.670000000000002</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>6.04</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>15.99</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>17.170000000000002</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>0.38</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>80.05</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>3.18</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>2.73</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>3.21</v>
       </c>
       <c r="O15">
@@ -1542,111 +1522,105 @@
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>115.56</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>4.24</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>4.62</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>11.44</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>5.04</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>13.33</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>14.52</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>0.38</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>65.56</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>3.26</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>2.72</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <v>5</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>3.27</v>
       </c>
       <c r="O16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>130</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>3.4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>3.78</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>5.91</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>4.04</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>10.68</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>11.87</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>0.38</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>3.47</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>2.67</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>3.27</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="O18" s="4">
-        <f>SUM(O8:O17)</f>
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1654,13 +1628,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>0.12</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1668,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1682,13 +1656,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>0.12</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1696,13 +1670,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1710,13 +1684,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>0.12</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1698,6 @@
     <mergeCell ref="B5:O5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1734,41 +1707,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,16 +1749,16 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>1.35</v>
@@ -1805,104 +1778,104 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="5">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2">
         <v>130</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1948,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>-497.44</v>
+        <v>-497.43</v>
       </c>
       <c r="C11">
         <v>3.98</v>
@@ -1969,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-497.44</v>
+        <v>-497.43</v>
       </c>
       <c r="K11">
         <v>35.22</v>
@@ -1986,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>-479.31</v>
+        <v>-479.3</v>
       </c>
       <c r="C12">
         <v>3.83</v>
@@ -2007,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>-479.31</v>
+        <v>-479.3</v>
       </c>
       <c r="K12">
         <v>39.409999999999997</v>
@@ -2138,7 +2111,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>-406.82</v>
+        <v>-406.81</v>
       </c>
       <c r="C16">
         <v>3.25</v>
@@ -2159,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>-406.82</v>
+        <v>-406.81</v>
       </c>
       <c r="K16">
         <v>42.69</v>
@@ -2176,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-388.7</v>
+        <v>-388.69</v>
       </c>
       <c r="C17">
         <v>3.11</v>
@@ -2197,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>-388.7</v>
+        <v>-388.69</v>
       </c>
       <c r="K17">
         <v>42.24</v>
@@ -2214,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>-370.57</v>
+        <v>-370.58</v>
       </c>
       <c r="C18">
         <v>2.96</v>
@@ -2235,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>-370.57</v>
+        <v>-370.58</v>
       </c>
       <c r="K18">
         <v>41.53</v>
@@ -2290,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>-334.33</v>
+        <v>-334.32</v>
       </c>
       <c r="C20">
         <v>2.67</v>
@@ -2311,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>-334.33</v>
+        <v>-334.32</v>
       </c>
       <c r="K20">
         <v>39.479999999999997</v>
@@ -2442,7 +2415,7 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>-261.83</v>
+        <v>-261.83999999999997</v>
       </c>
       <c r="C24">
         <v>2.09</v>
@@ -2463,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>-261.83</v>
+        <v>-261.83999999999997</v>
       </c>
       <c r="K24">
         <v>33.57</v>
@@ -2556,7 +2529,7 @@
         <v>17</v>
       </c>
       <c r="B27">
-        <v>-207.46</v>
+        <v>-207.47</v>
       </c>
       <c r="C27">
         <v>1.66</v>
@@ -2577,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>-207.46</v>
+        <v>-207.47</v>
       </c>
       <c r="K27">
         <v>28.02</v>
@@ -2594,7 +2567,7 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>-189.34</v>
+        <v>-189.35</v>
       </c>
       <c r="C28">
         <v>1.51</v>
@@ -2615,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>-189.34</v>
+        <v>-189.35</v>
       </c>
       <c r="K28">
         <v>26</v>
@@ -2705,76 +2678,76 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="5">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
         <v>130</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2823,7 +2796,7 @@
         <v>31.24</v>
       </c>
       <c r="G40">
-        <v>-497.44</v>
+        <v>-497.43</v>
       </c>
       <c r="H40">
         <v>3.98</v>
@@ -2849,7 +2822,7 @@
         <v>35.57</v>
       </c>
       <c r="G41">
-        <v>-479.31</v>
+        <v>-479.3</v>
       </c>
       <c r="H41">
         <v>3.83</v>
@@ -2953,7 +2926,7 @@
         <v>39.43</v>
       </c>
       <c r="G45">
-        <v>-406.82</v>
+        <v>-406.81</v>
       </c>
       <c r="H45">
         <v>3.25</v>
@@ -2979,7 +2952,7 @@
         <v>39.130000000000003</v>
       </c>
       <c r="G46">
-        <v>-388.7</v>
+        <v>-388.69</v>
       </c>
       <c r="H46">
         <v>3.11</v>
@@ -3005,7 +2978,7 @@
         <v>38.57</v>
       </c>
       <c r="G47">
-        <v>-370.57</v>
+        <v>-370.58</v>
       </c>
       <c r="H47">
         <v>2.96</v>
@@ -3057,7 +3030,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="G49">
-        <v>-334.33</v>
+        <v>-334.32</v>
       </c>
       <c r="H49">
         <v>2.67</v>
@@ -3161,7 +3134,7 @@
         <v>31.48</v>
       </c>
       <c r="G53">
-        <v>-261.83</v>
+        <v>-261.83999999999997</v>
       </c>
       <c r="H53">
         <v>2.09</v>
@@ -3239,7 +3212,7 @@
         <v>26.36</v>
       </c>
       <c r="G56">
-        <v>-207.46</v>
+        <v>-207.47</v>
       </c>
       <c r="H56">
         <v>1.66</v>
@@ -3265,7 +3238,7 @@
         <v>24.49</v>
       </c>
       <c r="G57">
-        <v>-189.34</v>
+        <v>-189.35</v>
       </c>
       <c r="H57">
         <v>1.51</v>
@@ -3344,42 +3317,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="5">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2">
         <v>130</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -3388,19 +3361,19 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3622,7 +3595,7 @@
         <v>4.2</v>
       </c>
       <c r="D17">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3678,59 +3651,59 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="100" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3742,25 +3715,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:U28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3779,61 +3754,61 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="5">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2">
         <v>130</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -3842,58 +3817,58 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4014,7 +3989,7 @@
         <v>13.04</v>
       </c>
       <c r="R9">
-        <v>1222.6300000000001</v>
+        <v>1222.6500000000001</v>
       </c>
       <c r="S9">
         <v>0.30299999999999999</v>
@@ -4073,13 +4048,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="P10">
-        <v>364.35</v>
+        <v>364.36</v>
       </c>
       <c r="Q10">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="R10">
-        <v>1268</v>
+        <v>1268.03</v>
       </c>
       <c r="S10">
         <v>0.29799999999999999</v>
@@ -4138,13 +4113,13 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="P11">
-        <v>370.4</v>
+        <v>370.41</v>
       </c>
       <c r="Q11">
         <v>15.13</v>
       </c>
       <c r="R11">
-        <v>1245.4000000000001</v>
+        <v>1245.42</v>
       </c>
       <c r="S11">
         <v>0.31</v>
@@ -4318,7 +4293,7 @@
         <v>-13.3</v>
       </c>
       <c r="K14">
-        <v>0.90400000000000003</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="L14">
         <v>4.41</v>
@@ -4333,13 +4308,13 @@
         <v>0.154</v>
       </c>
       <c r="P14">
-        <v>389.77</v>
+        <v>389.78</v>
       </c>
       <c r="Q14">
         <v>19.34</v>
       </c>
       <c r="R14">
-        <v>1327.4</v>
+        <v>1327.41</v>
       </c>
       <c r="S14">
         <v>0.308</v>
@@ -4380,7 +4355,7 @@
         <v>-1.38</v>
       </c>
       <c r="J15">
-        <v>-13.07</v>
+        <v>-13.08</v>
       </c>
       <c r="K15">
         <v>0.88600000000000001</v>
@@ -4398,13 +4373,13 @@
         <v>0.157</v>
       </c>
       <c r="P15">
-        <v>397.29</v>
+        <v>397.3</v>
       </c>
       <c r="Q15">
         <v>21.14</v>
       </c>
       <c r="R15">
-        <v>1282.25</v>
+        <v>1282.27</v>
       </c>
       <c r="S15">
         <v>0.32600000000000001</v>
@@ -4534,7 +4509,7 @@
         <v>25.59</v>
       </c>
       <c r="R17">
-        <v>1294.5999999999999</v>
+        <v>1294.58</v>
       </c>
       <c r="S17">
         <v>0.34</v>
@@ -4658,13 +4633,13 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="P19">
-        <v>437.79</v>
+        <v>437.8</v>
       </c>
       <c r="Q19">
         <v>31.62</v>
       </c>
       <c r="R19">
-        <v>1438.86</v>
+        <v>1438.89</v>
       </c>
       <c r="S19">
         <v>0.32600000000000001</v>
@@ -4687,7 +4662,7 @@
         <v>6.44</v>
       </c>
       <c r="D20">
-        <v>53.98</v>
+        <v>53.99</v>
       </c>
       <c r="E20">
         <v>55.02</v>
@@ -4752,7 +4727,7 @@
         <v>6.06</v>
       </c>
       <c r="D21">
-        <v>53.98</v>
+        <v>53.99</v>
       </c>
       <c r="E21">
         <v>55.02</v>
@@ -4788,13 +4763,13 @@
         <v>0.193</v>
       </c>
       <c r="P21">
-        <v>467.95</v>
+        <v>467.94</v>
       </c>
       <c r="Q21">
         <v>40.04</v>
       </c>
       <c r="R21">
-        <v>1444.87</v>
+        <v>1444.84</v>
       </c>
       <c r="S21">
         <v>0.35199999999999998</v>
@@ -4853,13 +4828,13 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="P22">
-        <v>486.85</v>
+        <v>486.84</v>
       </c>
       <c r="Q22">
         <v>45.58</v>
       </c>
       <c r="R22">
-        <v>1386.45</v>
+        <v>1386.42</v>
       </c>
       <c r="S22">
         <v>0.38400000000000001</v>
@@ -4992,7 +4967,7 @@
         <v>1600.61</v>
       </c>
       <c r="S24">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="T24">
         <v>26.783999999999999</v>
@@ -5048,13 +5023,13 @@
         <v>0.247</v>
       </c>
       <c r="P25">
-        <v>567.1</v>
+        <v>567.08000000000004</v>
       </c>
       <c r="Q25">
-        <v>71.349999999999994</v>
+        <v>71.34</v>
       </c>
       <c r="R25">
-        <v>1734.59</v>
+        <v>1734.53</v>
       </c>
       <c r="S25">
         <v>0.36799999999999999</v>
@@ -5113,13 +5088,13 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="P26">
-        <v>605.42999999999995</v>
+        <v>605.4</v>
       </c>
       <c r="Q26">
-        <v>84.98</v>
+        <v>84.97</v>
       </c>
       <c r="R26">
-        <v>1893.03</v>
+        <v>1892.93</v>
       </c>
       <c r="S26">
         <v>0.36499999999999999</v>
@@ -5178,13 +5153,13 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="P27">
-        <v>652.54</v>
+        <v>652.52</v>
       </c>
       <c r="Q27">
         <v>102.92</v>
       </c>
       <c r="R27">
-        <v>2083.34</v>
+        <v>2083.27</v>
       </c>
       <c r="S27">
         <v>0.36299999999999999</v>
@@ -5312,7 +5287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
   </cols>
@@ -5324,10 +5299,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3">
-        <v>0.99905136063951239</v>
+        <v>0.9990185594289982</v>
       </c>
     </row>
   </sheetData>
@@ -5341,429 +5316,429 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="64" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="5">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2">
         <v>130</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="7"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="4"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="7"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="4"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="5" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="5" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="5" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="5" t="s">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="5" t="s">
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="5" t="s">
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="5" t="s">
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="7"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="4"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="T4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AK4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AU4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AY4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BB4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BH4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BF4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="BL4" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
@@ -5786,10 +5761,10 @@
         <v>0.11</v>
       </c>
       <c r="G6">
-        <v>-17.93</v>
+        <v>-17.920000000000002</v>
       </c>
       <c r="H6">
-        <v>-30.13</v>
+        <v>-30.14</v>
       </c>
       <c r="I6">
         <v>-1.72</v>
@@ -5807,7 +5782,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>-28.07</v>
+        <v>-28.08</v>
       </c>
       <c r="O6">
         <v>-64.209999999999994</v>
@@ -5828,7 +5803,7 @@
         <v>0.1</v>
       </c>
       <c r="U6">
-        <v>-30.69</v>
+        <v>-30.68</v>
       </c>
       <c r="V6">
         <v>-101.99</v>
@@ -5873,7 +5848,7 @@
         <v>-16.600000000000001</v>
       </c>
       <c r="AJ6">
-        <v>-185.33</v>
+        <v>-185.34</v>
       </c>
       <c r="AK6">
         <v>-10.77</v>
@@ -5912,10 +5887,10 @@
         <v>0.11</v>
       </c>
       <c r="AW6">
-        <v>15.13</v>
+        <v>15.14</v>
       </c>
       <c r="AX6">
-        <v>-270.98</v>
+        <v>-271</v>
       </c>
       <c r="AY6">
         <v>-16.41</v>
@@ -5954,10 +5929,10 @@
         <v>0.11</v>
       </c>
       <c r="BK6">
-        <v>36.9</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="BL6">
-        <v>-331.32</v>
+        <v>-331.33</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
@@ -6064,10 +6039,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AI7">
-        <v>-16.47</v>
+        <v>-16.46</v>
       </c>
       <c r="AJ7">
-        <v>-150.19999999999999</v>
+        <v>-150.21</v>
       </c>
       <c r="AK7">
         <v>-7.72</v>
@@ -6106,10 +6081,10 @@
         <v>0.13</v>
       </c>
       <c r="AW7">
-        <v>12.82</v>
+        <v>12.83</v>
       </c>
       <c r="AX7">
-        <v>-237.89</v>
+        <v>-237.9</v>
       </c>
       <c r="AY7">
         <v>-12.62</v>
@@ -6151,7 +6126,7 @@
         <v>34.409999999999997</v>
       </c>
       <c r="BL7">
-        <v>-301.25</v>
+        <v>-301.26</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
@@ -6216,7 +6191,7 @@
         <v>0.23</v>
       </c>
       <c r="U8">
-        <v>-14.62</v>
+        <v>-14.61</v>
       </c>
       <c r="V8">
         <v>-33.1</v>
@@ -6237,7 +6212,7 @@
         <v>0.17</v>
       </c>
       <c r="AB8">
-        <v>-19.82</v>
+        <v>-19.829999999999998</v>
       </c>
       <c r="AC8">
         <v>-71.069999999999993</v>
@@ -6258,10 +6233,10 @@
         <v>0.16</v>
       </c>
       <c r="AI8">
-        <v>-16.649999999999999</v>
+        <v>-16.64</v>
       </c>
       <c r="AJ8">
-        <v>-112.89</v>
+        <v>-112.9</v>
       </c>
       <c r="AK8">
         <v>-5.13</v>
@@ -6300,10 +6275,10 @@
         <v>0.15</v>
       </c>
       <c r="AW8">
-        <v>8.74</v>
+        <v>8.75</v>
       </c>
       <c r="AX8">
-        <v>-201.98</v>
+        <v>-201.99</v>
       </c>
       <c r="AY8">
         <v>-9.3000000000000007</v>
@@ -6321,7 +6296,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="BD8">
-        <v>27.19</v>
+        <v>27.2</v>
       </c>
       <c r="BE8">
         <v>-245.48</v>
@@ -6342,10 +6317,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="BK8">
-        <v>29.72</v>
+        <v>29.73</v>
       </c>
       <c r="BL8">
-        <v>-268.52</v>
+        <v>-268.52999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
@@ -6473,7 +6448,7 @@
         <v>0.17</v>
       </c>
       <c r="AP9">
-        <v>-9.34</v>
+        <v>-9.35</v>
       </c>
       <c r="AQ9">
         <v>-118.16</v>
@@ -6494,10 +6469,10 @@
         <v>0.16</v>
       </c>
       <c r="AW9">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="AX9">
-        <v>-163.75</v>
+        <v>-163.76</v>
       </c>
       <c r="AY9">
         <v>-6.49</v>
@@ -6518,7 +6493,7 @@
         <v>21.32</v>
       </c>
       <c r="BE9">
-        <v>-208.91</v>
+        <v>-208.9</v>
       </c>
       <c r="BF9">
         <v>-7.25</v>
@@ -6646,10 +6621,10 @@
         <v>0.27</v>
       </c>
       <c r="AI10">
-        <v>-11.14</v>
+        <v>-11.13</v>
       </c>
       <c r="AJ10">
-        <v>-36.07</v>
+        <v>-36.08</v>
       </c>
       <c r="AK10">
         <v>-1.54</v>
@@ -6688,10 +6663,10 @@
         <v>0.18</v>
       </c>
       <c r="AW10">
-        <v>-1.45</v>
+        <v>-1.44</v>
       </c>
       <c r="AX10">
-        <v>-123.57</v>
+        <v>-123.58</v>
       </c>
       <c r="AY10">
         <v>-4.22</v>
@@ -6730,7 +6705,7 @@
         <v>0.15</v>
       </c>
       <c r="BK10">
-        <v>15.84</v>
+        <v>15.85</v>
       </c>
       <c r="BL10">
         <v>-196.53</v>
@@ -6861,7 +6836,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AP11">
-        <v>-9.02</v>
+        <v>-9.0299999999999994</v>
       </c>
       <c r="AQ11">
         <v>-37.840000000000003</v>
@@ -6885,7 +6860,7 @@
         <v>-5.55</v>
       </c>
       <c r="AX11">
-        <v>-81.95</v>
+        <v>-81.96</v>
       </c>
       <c r="AY11">
         <v>-2.4700000000000002</v>
@@ -6906,7 +6881,7 @@
         <v>7.22</v>
       </c>
       <c r="BE11">
-        <v>-129.13999999999999</v>
+        <v>-129.13</v>
       </c>
       <c r="BF11">
         <v>-2.99</v>
@@ -7076,10 +7051,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AW12">
-        <v>-6.49</v>
+        <v>-6.48</v>
       </c>
       <c r="AX12">
-        <v>-39.93</v>
+        <v>-39.94</v>
       </c>
       <c r="AY12">
         <v>-1.21</v>
@@ -7097,7 +7072,7 @@
         <v>0.22</v>
       </c>
       <c r="BD12">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="BE12">
         <v>-86.33</v>
@@ -7121,7 +7096,7 @@
         <v>-1.07</v>
       </c>
       <c r="BL12">
-        <v>-116.85</v>
+        <v>-116.86</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
@@ -7509,7 +7484,7 @@
         <v>-10.95</v>
       </c>
       <c r="BL14">
-        <v>-34.049999999999997</v>
+        <v>-34.06</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
